--- a/เอกสารการทดสอบระบบ/System_test_DPML.xlsx
+++ b/เอกสารการทดสอบระบบ/System_test_DPML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\First-AP\Desktop\Homework\4th Year\CSI_project\เอกสารการทดสอบระบบ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3718524-7766-4BE1-8328-1FB9AD1ED771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF89FE-FC62-400B-B237-34AFE3F874AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{C84F4602-E6E0-45CB-89B2-39096823FACA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C84F4602-E6E0-45CB-89B2-39096823FACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Test scenarios" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="226">
   <si>
     <t>การทดสอบการทำงานของระบบ DPML</t>
   </si>
@@ -696,12 +696,64 @@
   <si>
     <t>ระบบแสดงประวัติการใช้งานระบบแบบเฉพาะการกระทำของผู้ใช้งาน</t>
   </si>
+  <si>
+    <t>กล้องตั้งฉากกับวัตถุที่สนใจ 90 องศา</t>
+  </si>
+  <si>
+    <t>เงาที่ตกกระทบบทวัตถุและฉากหลังเป็นเงามัว</t>
+  </si>
+  <si>
+    <t>มีวัตถุอ้างอิงที่ผ่านการเรียนรู้ของเครื่องติดอยู่บนวัตถุที่สนใจ โดยอยู่ในบริเวณมุมใดมุมหนึ่ง</t>
+  </si>
+  <si>
+    <t>มีวัตถุที่สนใจซึ่งผ่านดการเรียนรู้ของเครื่องอยู่
+ในรูปภาพ</t>
+  </si>
+  <si>
+    <t>รูปภาพมีวัตถุที่สนใจเพียง 1 วัตถุ</t>
+  </si>
+  <si>
+    <t>รูปภาพมีวัตถุอ้างอิงซึ่งติดอยู่บนวัตถุที่สนใจ
+เพียง 1 วัตถุ</t>
+  </si>
+  <si>
+    <t>DPML-02-2-3</t>
+  </si>
+  <si>
+    <t>อัปโหลดไฟล์รูปภาพที่ตรงตามเงื่อนไขที่กำหนด</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ "Measurement object size successfully" และแสดงผลลัพธ์จากการวัดขนาด</t>
+  </si>
+  <si>
+    <t>DPML-02-2-4</t>
+  </si>
+  <si>
+    <t>อัปโหลดไฟล์รูปภาพที่สนใจโดยไม่มีวัตถุ
+ที่ซึ่งผ่านการเรียนรู้ของเครื่อง</t>
+  </si>
+  <si>
+    <t>DPML-02-2-5</t>
+  </si>
+  <si>
+    <t>อัปโหลดไฟล์รูปภาพที่สนใจโดยไม่มีวัตถุอ้างอิง
+ติดอยู่บนวัตถุที่สนใจวัดขนาด</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ "Object not found" และแสดงผลลัพธ์ซึ่งมีข้อความว่า "Object not found"</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ "Reference object not found" และแสดงผลลัพธ์ซึ่งมีข้อความว่า "Reference object not found"</t>
+  </si>
+  <si>
+    <t>เงื่อนไขของการอัปโหลดรูปภาพเพื่อวัดขนาด</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +822,13 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
@@ -920,7 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -994,6 +1053,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,42 +1104,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1056,6 +1115,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1356,6 +1425,30 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp160.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp161.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp162.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp163.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp164.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp165.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp166.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -5219,6 +5312,378 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4115" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C64CDC-B122-461C-900E-C7D2A9866EAE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4116" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B88E7A0-96B7-492F-B887-AE47F73CD695}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4117" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B84F37-E3A6-4324-87F6-253D6C7D1D0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4118" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB2AE82-A103-4888-A5BA-AE761C6D524F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4119" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC09297-D262-4F60-B093-BFCDC6C842D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4120" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47F06E6-DEB5-440E-A4DD-2E1355375FA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -12788,29 +13253,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.4" x14ac:dyDescent="1.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="9" t="s">
@@ -12828,10 +13293,10 @@
       <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="2">
@@ -12857,13 +13322,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -12880,9 +13345,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
@@ -12897,9 +13362,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="23" t="s">
         <v>20</v>
       </c>
@@ -12914,13 +13379,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A8" s="40">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -12937,9 +13402,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
@@ -12954,9 +13419,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="22" t="s">
         <v>31</v>
       </c>
@@ -12971,9 +13436,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="22" t="s">
         <v>106</v>
       </c>
@@ -12988,13 +13453,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>4</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -13011,9 +13476,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="23" t="s">
         <v>33</v>
       </c>
@@ -13028,9 +13493,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="23" t="s">
         <v>34</v>
       </c>
@@ -13045,9 +13510,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="23" t="s">
         <v>107</v>
       </c>
@@ -13062,13 +13527,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A16" s="40">
+      <c r="A16" s="29">
         <v>5</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -13085,9 +13550,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="22" t="s">
         <v>42</v>
       </c>
@@ -13103,6 +13568,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C8:C11"/>
@@ -13112,12 +13583,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -13795,18 +14260,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -13873,10 +14338,10 @@
       <c r="H5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
@@ -14324,9 +14789,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E9E5E0-1A19-4413-9271-D7F62269F354}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
   <cols>
@@ -14339,7 +14806,8 @@
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
@@ -14348,18 +14816,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -14426,10 +14894,10 @@
       <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
@@ -14737,16 +15205,147 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+      <c r="A22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+      <c r="A23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+      <c r="A24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="B26" s="52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A27" s="53">
+        <v>1</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A28" s="53">
+        <v>2</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A29" s="53">
+        <v>3</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A30" s="53">
+        <v>4</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A31" s="53">
+        <v>5</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A32" s="53">
+        <v>6</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D10:J10"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D10:J10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -15025,6 +15624,138 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4115" r:id="rId16" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4116" r:id="rId17" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4117" r:id="rId18" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4118" r:id="rId19" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4119" r:id="rId20" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4120" r:id="rId21" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -15059,18 +15790,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -15137,10 +15868,10 @@
       <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
@@ -15354,10 +16085,10 @@
       <c r="H15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A16" s="2" t="s">
@@ -15585,10 +16316,10 @@
       <c r="H26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="30"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A27" s="2" t="s">
@@ -15738,10 +16469,10 @@
       <c r="H34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="30"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A35" s="2" t="s">
@@ -15823,11 +16554,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D33:J33"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="D14:J14"/>
@@ -15836,6 +16562,11 @@
     <mergeCell ref="D25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="D32:J32"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -16677,18 +17408,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -16755,10 +17486,10 @@
       <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="147.6" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
@@ -17102,10 +17833,10 @@
       <c r="H20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A21" s="2" t="s">
@@ -17541,10 +18272,10 @@
       <c r="H39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J39" s="30"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A40" s="2" t="s">
@@ -17694,10 +18425,10 @@
       <c r="H47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="30"/>
+      <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A48" s="2" t="s">
@@ -17779,12 +18510,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D18:J18"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="D37:J37"/>
@@ -17792,6 +18517,12 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="D45:J45"/>
     <mergeCell ref="D46:J46"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D18:J18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -19137,7 +19868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF94E3-D30D-4096-A43A-CB0DA146CBD5}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -19161,18 +19892,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -19239,10 +19970,10 @@
       <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
@@ -19366,10 +20097,10 @@
       <c r="H12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A13" s="2" t="s">

--- a/เอกสารการทดสอบระบบ/System_test_DPML.xlsx
+++ b/เอกสารการทดสอบระบบ/System_test_DPML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\First-AP\Desktop\Homework\4th Year\CSI_project\เอกสารการทดสอบระบบ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF89FE-FC62-400B-B237-34AFE3F874AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E860197C-F6F2-4E3F-AE15-BE20CD83BFE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C84F4602-E6E0-45CB-89B2-39096823FACA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C84F4602-E6E0-45CB-89B2-39096823FACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Test scenarios" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="223">
   <si>
     <t>การทดสอบการทำงานของระบบ DPML</t>
   </si>
@@ -192,12 +192,6 @@
   </si>
   <si>
     <t>กรอกข้อมูลชื่อผู้ใช้งานและรหัสผ่านถูกต้อง</t>
-  </si>
-  <si>
-    <t>กรอกข้อมูลชื่อผู้ใช้งานผิดและรหัสผ่านถูกต้อง</t>
-  </si>
-  <si>
-    <t>กรอกข้อมูลชื่อผู้ใช้งานถูกต้องและรหัสผ่านผิด</t>
   </si>
   <si>
     <t>ไม่กรอกข้อมูลชื่อผู้ใช้งานและกรอกรหัสผ่าน</t>
@@ -273,9 +267,6 @@
   </si>
   <si>
     <t>DPML-01-1-5</t>
-  </si>
-  <si>
-    <t>DPML-01-1-6</t>
   </si>
   <si>
     <t>ไม่เลือกหน่วยการวัดขนาดวัตถุ</t>
@@ -328,9 +319,6 @@
     <t>DPML-03-1-5</t>
   </si>
   <si>
-    <t>กรอกชื่อและข้อมูลต้นแบบของวัตถุถูกต้อง</t>
-  </si>
-  <si>
     <t>กรอกชื่อข้อมูลต้นแบบของวัตถุไม่ถูกต้อง</t>
   </si>
   <si>
@@ -404,349 +392,356 @@
     <t>กดปุ่มลบข้อมูลต้นแบบของวัตถุ</t>
   </si>
   <si>
+    <t>กดปุ่มยืนยันการลบข้อมูลต้นแบบของวัตถุ</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ "Deleted!
+The model has been deleted."</t>
+  </si>
+  <si>
+    <t>ระบบยกเลิกการลบข้อมูลต้นแบบของวัตถุ</t>
+  </si>
+  <si>
+    <t>กดปุ่ยกเลิกการลบข้อมูลต้นแบบของวัตถุ</t>
+  </si>
+  <si>
+    <t>เปิดการทำงานของข้อมูลต้นแบบของวัตถุ</t>
+  </si>
+  <si>
+    <t>DPML-03-4-1</t>
+  </si>
+  <si>
+    <t>DPML-03-4-2</t>
+  </si>
+  <si>
+    <t>DPML-03-4-3</t>
+  </si>
+  <si>
+    <t>กดปุ่มยกเลิกการเปิดการทำงานของข้อมูลต้นแบบของวัตถุ</t>
+  </si>
+  <si>
+    <t>กดปุ่มยืนยันการเปิดการทำงานข้อมูลต้นแบบของวัตถุ</t>
+  </si>
+  <si>
+    <t>ระบบยกเลิกการเปิดการทำงานของข้อมูลต้นแบบของวัตถุ</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ "Change active model successfully."</t>
+  </si>
+  <si>
+    <t>Test cases DPMP-04</t>
+  </si>
+  <si>
+    <t>DPML-04-1-1</t>
+  </si>
+  <si>
+    <t>DPML-04-1-2</t>
+  </si>
+  <si>
+    <t>DPML-04-1-3</t>
+  </si>
+  <si>
+    <t>DPML-04-1-4</t>
+  </si>
+  <si>
+    <t>DPML-04-1-5</t>
+  </si>
+  <si>
+    <t>DPML-04-2-1</t>
+  </si>
+  <si>
+    <t>DPML-04-2-2</t>
+  </si>
+  <si>
+    <t>DPML-04-2-3</t>
+  </si>
+  <si>
+    <t>DPML-04-2-4</t>
+  </si>
+  <si>
+    <t>DPML-04-2-5</t>
+  </si>
+  <si>
+    <t>DPML-04-2-6</t>
+  </si>
+  <si>
+    <t>DPML-04-3-1</t>
+  </si>
+  <si>
+    <t>DPML-04-3-2</t>
+  </si>
+  <si>
+    <t>DPML-04-3-3</t>
+  </si>
+  <si>
+    <t>DPML-04-4-1</t>
+  </si>
+  <si>
+    <t>DPML-04-4-2</t>
+  </si>
+  <si>
+    <t>DPML-04-4-3</t>
+  </si>
+  <si>
+    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิงน้อยกว่า 3 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิงไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>ไม่กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>เลือกไฟล์ข้อมูลต้นแบบของวัตถุอ้างอิงโดยนามสกุลไฟล์ไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>เลือกไฟล์ข้อมูลต้นแบบของวัตถุอ้างอิงโดยนามสกุลไฟล์ถูกต้อง</t>
+  </si>
+  <si>
+    <t>กดปุ่มลบข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>กดปุ่มยืนยันการลบข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>กดปุ่ยกเลิกการลบข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>ระบบยกเลิกการลบข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>เปลี่ยนสถานะการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>เปิดการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>กดปุ่มยืนยันการเปิดการทำงานข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>กดปุ่มยกเลิกการเปิดการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>ระบบยกเลิกการเปิดการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุ
+และเลือกไฟล์ข้อมูลต้นแบบของวัตถุโดยนามสกุลไฟล์ถูกต้อง</t>
+  </si>
+  <si>
+    <t>กรอกขนาดความกว้างน้อยกว่าหรือเท่ากับ 0</t>
+  </si>
+  <si>
+    <t>ไม่กรอกขนาดความกว้าง</t>
+  </si>
+  <si>
+    <t>ไม่กรอกขนาดความยาว</t>
+  </si>
+  <si>
+    <t>ไม่เลือกหน่วยในการวัดขนาดวัตถุ</t>
+  </si>
+  <si>
+    <t>DPML-04-1-6</t>
+  </si>
+  <si>
+    <t>DPML-04-1-7</t>
+  </si>
+  <si>
+    <t>DPML-04-1-8</t>
+  </si>
+  <si>
+    <t>DPML-04-1-9</t>
+  </si>
+  <si>
+    <t>DPML-04-1-10</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ
+"Width must greater than 0."</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ
+"Height must greater than 0."</t>
+  </si>
+  <si>
+    <t>กรอกขนาดความกว้างถูกต้อง</t>
+  </si>
+  <si>
+    <t>กรอกขนาดความยาวถูกต้อง</t>
+  </si>
+  <si>
+    <t>DPML-04-2-7</t>
+  </si>
+  <si>
+    <t>DPML-04-2-8</t>
+  </si>
+  <si>
+    <t>DPML-04-2-9</t>
+  </si>
+  <si>
+    <t>DPML-04-2-10</t>
+  </si>
+  <si>
+    <t>DPML-04-2-11</t>
+  </si>
+  <si>
+    <t>Test cases DPMP-05</t>
+  </si>
+  <si>
+    <t>DPML-05-1-1</t>
+  </si>
+  <si>
+    <t>DPML-05-1-2</t>
+  </si>
+  <si>
+    <t>เลือกประเภทการแสดงผลตามวันที่ปัจจุบัน</t>
+  </si>
+  <si>
+    <t>เลือกประเภทการแสดงผลตามกล่องบันทึกข้อความประเภทเลือกช่วงวันที่และเวลา
+(Datetime range picker)</t>
+  </si>
+  <si>
+    <t>ระบบแสดงประวัติการใช้งานระบบตามวันที่ปัจจุบัน</t>
+  </si>
+  <si>
+    <t>ระบบแสดงประวัติการใช้งานระบบตามช่วงวันที่และเวลา</t>
+  </si>
+  <si>
+    <t>DPML-05-2-1</t>
+  </si>
+  <si>
+    <t>DPML-05-2-2</t>
+  </si>
+  <si>
+    <t>DPML-05-2-3</t>
+  </si>
+  <si>
+    <t>เลือกประเภทการแสดงผลแบบผู้กระทำต่อระบบทั้งหมด</t>
+  </si>
+  <si>
+    <t>เลือกประเภทการแสดงผลแบบเฉพาะการกระทำของระบบ</t>
+  </si>
+  <si>
+    <t>เลือกประเภทการแสดงผลแบบเฉพาะการกระทำของผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>ระบบแสดงประวัติการใช้งานระบบแบบผู้กระทำต่อระบบทั้งหมด</t>
+  </si>
+  <si>
+    <t>ระบบแสดงประวัติการใช้งานระบบแบบเฉพาะการกระทำของระบบ</t>
+  </si>
+  <si>
+    <t>ระบบแสดงประวัติการใช้งานระบบแบบเฉพาะการกระทำของผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>กล้องตั้งฉากกับวัตถุที่สนใจ 90 องศา</t>
+  </si>
+  <si>
+    <t>เงาที่ตกกระทบบทวัตถุและฉากหลังเป็นเงามัว</t>
+  </si>
+  <si>
+    <t>มีวัตถุอ้างอิงที่ผ่านการเรียนรู้ของเครื่องติดอยู่บนวัตถุที่สนใจ โดยอยู่ในบริเวณมุมใดมุมหนึ่ง</t>
+  </si>
+  <si>
+    <t>มีวัตถุที่สนใจซึ่งผ่านดการเรียนรู้ของเครื่องอยู่
+ในรูปภาพ</t>
+  </si>
+  <si>
+    <t>รูปภาพมีวัตถุที่สนใจเพียง 1 วัตถุ</t>
+  </si>
+  <si>
+    <t>รูปภาพมีวัตถุอ้างอิงซึ่งติดอยู่บนวัตถุที่สนใจ
+เพียง 1 วัตถุ</t>
+  </si>
+  <si>
+    <t>อัปโหลดไฟล์รูปภาพที่ตรงตามเงื่อนไขที่กำหนด</t>
+  </si>
+  <si>
+    <t>อัปโหลดไฟล์รูปภาพที่สนใจโดยไม่มีวัตถุ
+ที่ซึ่งผ่านการเรียนรู้ของเครื่อง</t>
+  </si>
+  <si>
+    <t>อัปโหลดไฟล์รูปภาพที่สนใจโดยไม่มีวัตถุอ้างอิง
+ติดอยู่บนวัตถุที่สนใจวัดขนาด</t>
+  </si>
+  <si>
+    <t>เงื่อนไขของการอัปโหลดรูปภาพเพื่อวัดขนาด</t>
+  </si>
+  <si>
+    <t>กรอกข้อมูลชื่อผู้ใช้งานหรือรหัสผ่านไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>DPML-02-3-1</t>
+  </si>
+  <si>
+    <t>DPML-02-3-2</t>
+  </si>
+  <si>
+    <t>DPML-02-3-3</t>
+  </si>
+  <si>
+    <t>DPML-02-3-4</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ "Measure object size successfully" และแสดงผลลัพธ์จากการวัดขนาด</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ "Object not detected" และแสดงผลลัพธ์ซึ่งมีข้อความว่า "Object not detected"</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อความ "Reference object not detected" และแสดงผลลัพธ์ซึ่งมีข้อความว่า "Reference object not detected"</t>
+  </si>
+  <si>
+    <t>ระบบแสดงแถบสถานะ
+การอัปโหลดรูปภาพ
+(Progress bar) และแสดงข้อความ
+"Upload a model data successfully."</t>
+  </si>
+  <si>
+    <t>ระบบปิดการทำงานของปุ่มเพิ่มข้อมูลต้นแบบของวัตถุ</t>
+  </si>
+  <si>
+    <t>ระบบปิดการทำงานของปุ่มเพิ่มข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+  </si>
+  <si>
+    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุถูกต้อง</t>
+  </si>
+  <si>
+    <t>ระบบแสดงหน้าต่างแสดงผลซ้อน
+เพื่อยืนยันการเปิดการทำงานของข้อมูลต้นแบบของวัตถุ และ
+ระบบแสดงข้อความ
+"Change active model successfully."</t>
+  </si>
+  <si>
     <t>ระบบแสดงหน้าต่างแสดงผลซ้อน
 เพื่อยืนยันการลบข้อมูลต้นแบบ
-ของวัตถุ</t>
-  </si>
-  <si>
-    <t>กดปุ่มยืนยันการลบข้อมูลต้นแบบของวัตถุ</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อความ "Deleted!
-The model has been deleted."</t>
-  </si>
-  <si>
-    <t>ระบบยกเลิกการลบข้อมูลต้นแบบของวัตถุ</t>
-  </si>
-  <si>
-    <t>กดปุ่ยกเลิกการลบข้อมูลต้นแบบของวัตถุ</t>
-  </si>
-  <si>
-    <t>เปิดการทำงานของข้อมูลต้นแบบของวัตถุ</t>
-  </si>
-  <si>
-    <t>DPML-03-4-1</t>
-  </si>
-  <si>
-    <t>DPML-03-4-2</t>
-  </si>
-  <si>
-    <t>DPML-03-4-3</t>
-  </si>
-  <si>
-    <t>กดปุ่มยกเลิกการเปิดการทำงานของข้อมูลต้นแบบของวัตถุ</t>
-  </si>
-  <si>
-    <t>กดปุ่มยืนยันการเปิดการทำงานข้อมูลต้นแบบของวัตถุ</t>
-  </si>
-  <si>
-    <t>ระบบยกเลิกการเปิดการทำงานของข้อมูลต้นแบบของวัตถุ</t>
-  </si>
-  <si>
-    <t>ระบบแสดงหน้าต่างแสดงผลซ้อน
-เพื่อยืนยันการเปิดการทำงานของข้อมูลต้นแบบของวัตถุ</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อความ "Change active model successfully."</t>
-  </si>
-  <si>
-    <t>Test cases DPMP-04</t>
-  </si>
-  <si>
-    <t>DPML-04-1-1</t>
-  </si>
-  <si>
-    <t>DPML-04-1-2</t>
-  </si>
-  <si>
-    <t>DPML-04-1-3</t>
-  </si>
-  <si>
-    <t>DPML-04-1-4</t>
-  </si>
-  <si>
-    <t>DPML-04-1-5</t>
-  </si>
-  <si>
-    <t>DPML-04-2-1</t>
-  </si>
-  <si>
-    <t>DPML-04-2-2</t>
-  </si>
-  <si>
-    <t>DPML-04-2-3</t>
-  </si>
-  <si>
-    <t>DPML-04-2-4</t>
-  </si>
-  <si>
-    <t>DPML-04-2-5</t>
-  </si>
-  <si>
-    <t>DPML-04-2-6</t>
-  </si>
-  <si>
-    <t>DPML-04-3-1</t>
-  </si>
-  <si>
-    <t>DPML-04-3-2</t>
-  </si>
-  <si>
-    <t>DPML-04-3-3</t>
-  </si>
-  <si>
-    <t>DPML-04-4-1</t>
-  </si>
-  <si>
-    <t>DPML-04-4-2</t>
-  </si>
-  <si>
-    <t>DPML-04-4-3</t>
-  </si>
-  <si>
-    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิงน้อยกว่า 3 ตัวอักษร</t>
-  </si>
-  <si>
-    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิงไม่ถูกต้อง</t>
-  </si>
-  <si>
-    <t>ไม่กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>เลือกไฟล์ข้อมูลต้นแบบของวัตถุอ้างอิงโดยนามสกุลไฟล์ไม่ถูกต้อง</t>
-  </si>
-  <si>
-    <t>กรอกชื่อและข้อมูลต้นแบบของวัตถุอ้างอิงถูกต้อง</t>
-  </si>
-  <si>
-    <t>เลือกไฟล์ข้อมูลต้นแบบของวัตถุอ้างอิงโดยนามสกุลไฟล์ถูกต้อง</t>
-  </si>
-  <si>
-    <t>กดปุ่มลบข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+ของวัตถุ และระบบแสดงข้อความ
+"The model has been deleted."</t>
+  </si>
+  <si>
+    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิง ขนาดความกว้าง
+ขนาดความยาว เลือกหน่วยในการวัดขนาดวัตถุ
+และเลือกไฟล์ข้อมูลต้นแบบของวัตถุอ้างอิงโดยนามสกุลไฟล์ถูกต้อง</t>
+  </si>
+  <si>
+    <t>กรอกขนาดความยาวน้อยกว่าหรือเท่ากับ 0</t>
+  </si>
+  <si>
+    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิงถูกต้อง</t>
+  </si>
+  <si>
+    <t>เลือกหน่วยของขนาดวัตถุอ้างอิงถูกต้อง</t>
   </si>
   <si>
     <t>ระบบแสดงหน้าต่างแสดงผลซ้อน
 เพื่อยืนยันการลบข้อมูลต้นแบบ
-ของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>กดปุ่มยืนยันการลบข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>กดปุ่ยกเลิกการลบข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>ระบบยกเลิกการลบข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>เปลี่ยนสถานะการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>เปิดการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
+ของวัตถุอ้างอิง และระบบแสดงข้อความ
+"The model has been deleted."</t>
   </si>
   <si>
     <t>ระบบแสดงหน้าต่างแสดงผลซ้อน
-เพื่อยืนยันการเปิดการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>กดปุ่มยืนยันการเปิดการทำงานข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>กดปุ่มยกเลิกการเปิดการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>ระบบยกเลิกการเปิดการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง</t>
-  </si>
-  <si>
-    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุ
-และเลือกไฟล์ข้อมูลต้นแบบของวัตถุโดยนามสกุลไฟล์ถูกต้อง</t>
-  </si>
-  <si>
-    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิง
-และเลือกไฟล์ข้อมูลต้นแบบของวัตถุอ้างอิงโดยนามสกุลไฟล์ถูกต้อง</t>
-  </si>
-  <si>
-    <t>กรอกชื่อข้อมูลต้นแบบของวัตถุอ้างอิง
-กรอกขนาดความกว้าง
-กรอกขนาดความยาว
-เลือกหน่วยในการวัดขนาดวัตถุ
-และเลือกไฟล์ข้อมูลต้นแบบของวัตถุอ้างอิงโดยนามสกุลไฟล์ถูกต้อง</t>
-  </si>
-  <si>
-    <t>กรอกขนาดความกว้างน้อยกว่าหรือเท่ากับ 0</t>
-  </si>
-  <si>
-    <t>ไม่กรอกขนาดความกว้าง</t>
-  </si>
-  <si>
-    <t>กรอกขนาดความยาวน้อยกว่าหรือเท่ากับ 1</t>
-  </si>
-  <si>
-    <t>ไม่กรอกขนาดความยาว</t>
-  </si>
-  <si>
-    <t>ไม่เลือกหน่วยในการวัดขนาดวัตถุ</t>
-  </si>
-  <si>
-    <t>DPML-04-1-6</t>
-  </si>
-  <si>
-    <t>DPML-04-1-7</t>
-  </si>
-  <si>
-    <t>DPML-04-1-8</t>
-  </si>
-  <si>
-    <t>DPML-04-1-9</t>
-  </si>
-  <si>
-    <t>DPML-04-1-10</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อความ
-"Width must greater than 0."</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อความ
-"Height must greater than 0."</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อความ
-"Please select measurement unit."</t>
-  </si>
-  <si>
-    <t>กรอกขนาดความกว้างถูกต้อง</t>
-  </si>
-  <si>
-    <t>กรอกขนาดความยาวถูกต้อง</t>
-  </si>
-  <si>
-    <t>เลือกหน่วยในการวัดขนาดวัตถุถูกต้อง</t>
-  </si>
-  <si>
-    <t>DPML-04-2-7</t>
-  </si>
-  <si>
-    <t>DPML-04-2-8</t>
-  </si>
-  <si>
-    <t>DPML-04-2-9</t>
-  </si>
-  <si>
-    <t>DPML-04-2-10</t>
-  </si>
-  <si>
-    <t>DPML-04-2-11</t>
-  </si>
-  <si>
-    <t>DPML-04-2-12</t>
-  </si>
-  <si>
-    <t>DPML-04-2-13</t>
-  </si>
-  <si>
-    <t>DPML-04-2-14</t>
-  </si>
-  <si>
-    <t>Test cases DPMP-05</t>
-  </si>
-  <si>
-    <t>DPML-05-1-1</t>
-  </si>
-  <si>
-    <t>DPML-05-1-2</t>
-  </si>
-  <si>
-    <t>เลือกประเภทการแสดงผลตามวันที่ปัจจุบัน</t>
-  </si>
-  <si>
-    <t>เลือกประเภทการแสดงผลตามกล่องบันทึกข้อความประเภทเลือกช่วงวันที่และเวลา
-(Datetime range picker)</t>
-  </si>
-  <si>
-    <t>ระบบแสดงประวัติการใช้งานระบบตามวันที่ปัจจุบัน</t>
-  </si>
-  <si>
-    <t>ระบบแสดงประวัติการใช้งานระบบตามช่วงวันที่และเวลา</t>
-  </si>
-  <si>
-    <t>DPML-05-2-1</t>
-  </si>
-  <si>
-    <t>DPML-05-2-2</t>
-  </si>
-  <si>
-    <t>DPML-05-2-3</t>
-  </si>
-  <si>
-    <t>เลือกประเภทการแสดงผลแบบผู้กระทำต่อระบบทั้งหมด</t>
-  </si>
-  <si>
-    <t>เลือกประเภทการแสดงผลแบบเฉพาะการกระทำของระบบ</t>
-  </si>
-  <si>
-    <t>เลือกประเภทการแสดงผลแบบเฉพาะการกระทำของผู้ใช้งาน</t>
-  </si>
-  <si>
-    <t>ระบบแสดงประวัติการใช้งานระบบแบบผู้กระทำต่อระบบทั้งหมด</t>
-  </si>
-  <si>
-    <t>ระบบแสดงประวัติการใช้งานระบบแบบเฉพาะการกระทำของระบบ</t>
-  </si>
-  <si>
-    <t>ระบบแสดงประวัติการใช้งานระบบแบบเฉพาะการกระทำของผู้ใช้งาน</t>
-  </si>
-  <si>
-    <t>กล้องตั้งฉากกับวัตถุที่สนใจ 90 องศา</t>
-  </si>
-  <si>
-    <t>เงาที่ตกกระทบบทวัตถุและฉากหลังเป็นเงามัว</t>
-  </si>
-  <si>
-    <t>มีวัตถุอ้างอิงที่ผ่านการเรียนรู้ของเครื่องติดอยู่บนวัตถุที่สนใจ โดยอยู่ในบริเวณมุมใดมุมหนึ่ง</t>
-  </si>
-  <si>
-    <t>มีวัตถุที่สนใจซึ่งผ่านดการเรียนรู้ของเครื่องอยู่
-ในรูปภาพ</t>
-  </si>
-  <si>
-    <t>รูปภาพมีวัตถุที่สนใจเพียง 1 วัตถุ</t>
-  </si>
-  <si>
-    <t>รูปภาพมีวัตถุอ้างอิงซึ่งติดอยู่บนวัตถุที่สนใจ
-เพียง 1 วัตถุ</t>
-  </si>
-  <si>
-    <t>DPML-02-2-3</t>
-  </si>
-  <si>
-    <t>อัปโหลดไฟล์รูปภาพที่ตรงตามเงื่อนไขที่กำหนด</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อความ "Measurement object size successfully" และแสดงผลลัพธ์จากการวัดขนาด</t>
-  </si>
-  <si>
-    <t>DPML-02-2-4</t>
-  </si>
-  <si>
-    <t>อัปโหลดไฟล์รูปภาพที่สนใจโดยไม่มีวัตถุ
-ที่ซึ่งผ่านการเรียนรู้ของเครื่อง</t>
-  </si>
-  <si>
-    <t>DPML-02-2-5</t>
-  </si>
-  <si>
-    <t>อัปโหลดไฟล์รูปภาพที่สนใจโดยไม่มีวัตถุอ้างอิง
-ติดอยู่บนวัตถุที่สนใจวัดขนาด</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อความ "Object not found" และแสดงผลลัพธ์ซึ่งมีข้อความว่า "Object not found"</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อความ "Reference object not found" และแสดงผลลัพธ์ซึ่งมีข้อความว่า "Reference object not found"</t>
-  </si>
-  <si>
-    <t>เงื่อนไขของการอัปโหลดรูปภาพเพื่อวัดขนาด</t>
+เพื่อยืนยันการเปิดการทำงานของข้อมูลต้นแบบของวัตถุอ้างอิง และระบบแสดงข้อความ
+"Change active model successfully."</t>
   </si>
 </sst>
 </file>
@@ -1053,6 +1048,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,39 +1109,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1115,16 +1120,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1348,107 +1343,11 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp143.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp144.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp146.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp147.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp148.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp149.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp150.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp151.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp152.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp153.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp154.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp155.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp156.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp157.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp158.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp159.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp160.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp161.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp162.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp163.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp164.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp165.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp166.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -3974,6 +3873,140 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3101" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D0C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3102" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E0C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
@@ -3984,13 +4017,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3101" name="Check Box 29" hidden="1">
+            <xdr:cNvPr id="3103" name="Check Box 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3101"/>
+                  <a14:compatExt spid="_x0000_s3103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D0C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4051,13 +4084,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3102" name="Check Box 30" hidden="1">
+            <xdr:cNvPr id="3104" name="Check Box 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3102"/>
+                  <a14:compatExt spid="_x0000_s3104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E0C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000200C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4118,13 +4151,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3103" name="Check Box 31" hidden="1">
+            <xdr:cNvPr id="3105" name="Check Box 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3103"/>
+                  <a14:compatExt spid="_x0000_s3105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F0C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000210C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4185,13 +4218,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3104" name="Check Box 32" hidden="1">
+            <xdr:cNvPr id="3106" name="Check Box 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3104"/>
+                  <a14:compatExt spid="_x0000_s3106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000200C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000220C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4252,13 +4285,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3105" name="Check Box 33" hidden="1">
+            <xdr:cNvPr id="3107" name="Check Box 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3105"/>
+                  <a14:compatExt spid="_x0000_s3107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000210C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000230C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4315,140 +4348,6 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3106" name="Check Box 34" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3106"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000220C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3107" name="Check Box 35" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3107"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000230C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>10</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5184,24 +5083,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4113" name="Check Box 17" hidden="1">
+            <xdr:cNvPr id="4115" name="Check Box 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4113"/>
+                  <a14:compatExt spid="_x0000_s4115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5251,24 +5150,24 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4114" name="Check Box 18" hidden="1">
+            <xdr:cNvPr id="4116" name="Check Box 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4114"/>
+                  <a14:compatExt spid="_x0000_s4116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5314,23 +5213,28 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4115" name="Check Box 19" hidden="1">
+            <xdr:cNvPr id="4117" name="Check Box 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4115"/>
+                  <a14:compatExt spid="_x0000_s4117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C64CDC-B122-461C-900E-C7D2A9866EAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5370,29 +5274,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4116" name="Check Box 20" hidden="1">
+            <xdr:cNvPr id="4118" name="Check Box 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4116"/>
+                  <a14:compatExt spid="_x0000_s4118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B88E7A0-96B7-492F-B887-AE47F73CD695}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5432,29 +5341,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4117" name="Check Box 21" hidden="1">
+            <xdr:cNvPr id="4119" name="Check Box 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4117"/>
+                  <a14:compatExt spid="_x0000_s4119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B84F37-E3A6-4324-87F6-253D6C7D1D0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5494,29 +5408,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4118" name="Check Box 22" hidden="1">
+            <xdr:cNvPr id="4120" name="Check Box 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4118"/>
+                  <a14:compatExt spid="_x0000_s4120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB2AE82-A103-4888-A5BA-AE761C6D524F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5556,131 +5475,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4119" name="Check Box 23" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4119"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC09297-D262-4F60-B093-BFCDC6C842D7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4120" name="Check Box 24" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4120"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47F06E6-DEB5-440E-A4DD-2E1355375FA4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -7437,274 +7232,6 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5151" name="Check Box 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5151"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5152" name="Check Box 32" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5152"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5157" name="Check Box 37" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5157"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5158" name="Check Box 38" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5158"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
@@ -7790,274 +7317,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5161" name="Check Box 41" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5161"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5162" name="Check Box 42" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5162"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5163" name="Check Box 43" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5163"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5164" name="Check Box 44" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5164"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9050,13 +8309,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9117,13 +8376,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9586,13 +8845,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9653,13 +8912,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9720,24 +8979,24 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7195" name="Check Box 27" hidden="1">
+            <xdr:cNvPr id="7199" name="Check Box 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7195"/>
+                  <a14:compatExt spid="_x0000_s7199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9787,281 +9046,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7196" name="Check Box 28" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7196"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C1C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7197" name="Check Box 29" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7197"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D1C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7198" name="Check Box 30" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7198"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E1C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7199" name="Check Box 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7199"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F1C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10073,274 +9064,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000201C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7201" name="Check Box 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7201"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000211C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7202" name="Check Box 34" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7202"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000221C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7203" name="Check Box 35" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7203"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000231C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7204" name="Check Box 36" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7204"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000241C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11607,13 +10330,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7223" name="Check Box 55" hidden="1">
+            <xdr:cNvPr id="7225" name="Check Box 57" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7223"/>
+                  <a14:compatExt spid="_x0000_s7225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000371C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000391C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11674,140 +10397,6 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7224" name="Check Box 56" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7224"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000381C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7225" name="Check Box 57" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7225"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000391C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
             <xdr:cNvPr id="7226" name="Check Box 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
@@ -11815,274 +10404,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A1C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7227" name="Check Box 59" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7227"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B1C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7228" name="Check Box 60" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7228"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C1C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7229" name="Check Box 61" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7229"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D1C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>289560</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7230" name="Check Box 62" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7230"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13237,8 +11558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AEB24-A98D-47BA-BB32-7812164A8B5A}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -13253,29 +11574,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.4" x14ac:dyDescent="1.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="9" t="s">
@@ -13293,10 +11614,10 @@
       <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="42"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="2">
@@ -13322,10 +11643,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A5" s="35">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="38" t="s">
@@ -13345,8 +11666,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="39"/>
       <c r="D6" s="23" t="s">
         <v>19</v>
@@ -13362,8 +11683,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="40"/>
       <c r="D7" s="23" t="s">
         <v>20</v>
@@ -13379,13 +11700,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A8" s="29">
+      <c r="A8" s="44">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -13402,9 +11723,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
@@ -13419,9 +11740,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="22" t="s">
         <v>31</v>
       </c>
@@ -13436,14 +11757,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>11</v>
@@ -13453,10 +11774,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A12" s="35">
+      <c r="A12" s="41">
         <v>4</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="38" t="s">
@@ -13476,8 +11797,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="39"/>
       <c r="D13" s="23" t="s">
         <v>33</v>
@@ -13493,8 +11814,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="39"/>
       <c r="D14" s="23" t="s">
         <v>34</v>
@@ -13510,14 +11831,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="40"/>
       <c r="D15" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>11</v>
@@ -13527,13 +11848,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A16" s="29">
+      <c r="A16" s="44">
         <v>5</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="47" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -13550,9 +11871,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="22" t="s">
         <v>42</v>
       </c>
@@ -13568,12 +11889,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C8:C11"/>
@@ -13583,6 +11898,12 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -14234,10 +12555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4598D7E-0DC4-491C-9E80-4581446815A4}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -14256,22 +12577,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -14283,15 +12604,15 @@
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="14" t="s">
@@ -14303,15 +12624,15 @@
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="9" t="s">
@@ -14327,10 +12648,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>49</v>
@@ -14338,14 +12659,14 @@
       <c r="H5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>53</v>
@@ -14353,7 +12674,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2" t="s">
@@ -14371,15 +12692,15 @@
     </row>
     <row r="7" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5"/>
       <c r="E7" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
@@ -14397,15 +12718,15 @@
     </row>
     <row r="8" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="2" t="s">
@@ -14423,15 +12744,15 @@
     </row>
     <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5"/>
       <c r="E9" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="2" t="s">
@@ -14449,15 +12770,15 @@
     </row>
     <row r="10" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2" t="s">
@@ -14470,32 +12791,6 @@
         <v>11</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14614,6 +12909,50 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3102" r:id="rId9" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3103" r:id="rId10" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
@@ -14629,7 +12968,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3102" r:id="rId9" name="Check Box 30">
+            <control shapeId="3104" r:id="rId11" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14651,7 +12990,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3103" r:id="rId10" name="Check Box 31">
+            <control shapeId="3105" r:id="rId12" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14673,7 +13012,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3104" r:id="rId11" name="Check Box 32">
+            <control shapeId="3106" r:id="rId13" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14695,7 +13034,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3105" r:id="rId12" name="Check Box 33">
+            <control shapeId="3107" r:id="rId14" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14717,7 +13056,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3106" r:id="rId13" name="Check Box 34">
+            <control shapeId="3108" r:id="rId15" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14737,50 +13076,6 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3107" r:id="rId14" name="Check Box 35">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3108" r:id="rId15" name="Check Box 36">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -14791,8 +13086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E9E5E0-1A19-4413-9271-D7F62269F354}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -14812,22 +13107,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -14839,15 +13134,15 @@
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="14" t="s">
@@ -14859,15 +13154,15 @@
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
@@ -14883,10 +13178,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>49</v>
@@ -14894,22 +13189,22 @@
       <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2" t="s">
@@ -14927,15 +13222,15 @@
     </row>
     <row r="7" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5"/>
       <c r="E7" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
@@ -14953,7 +13248,7 @@
     </row>
     <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.7">
@@ -14966,15 +13261,15 @@
       <c r="C10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A11" s="14" t="s">
@@ -14986,15 +13281,15 @@
       <c r="C11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A12" s="10" t="s">
@@ -15010,10 +13305,10 @@
         <v>48</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>49</v>
@@ -15028,7 +13323,7 @@
     </row>
     <row r="13" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>21</v>
@@ -15036,7 +13331,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="5"/>
       <c r="E13" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2" t="s">
@@ -15054,15 +13349,15 @@
     </row>
     <row r="14" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="2" t="s">
@@ -15080,7 +13375,7 @@
     </row>
     <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A16" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.7">
@@ -15093,15 +13388,15 @@
       <c r="C17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A18" s="14" t="s">
@@ -15113,15 +13408,15 @@
       <c r="C18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="10" t="s">
@@ -15137,10 +13432,10 @@
         <v>48</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>49</v>
@@ -15155,15 +13450,15 @@
     </row>
     <row r="20" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="5"/>
       <c r="E20" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="2" t="s">
@@ -15179,17 +13474,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" ht="73.8" hidden="1" x14ac:dyDescent="0.7">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="5"/>
       <c r="E21" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="2" t="s">
@@ -15205,17 +13500,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A22" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="5"/>
       <c r="E22" s="24" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
@@ -15231,17 +13526,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A23" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="5"/>
       <c r="E23" s="24" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2" t="s">
@@ -15257,17 +13552,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" ht="123" x14ac:dyDescent="0.7">
       <c r="A24" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="5"/>
       <c r="E24" s="24" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
@@ -15284,56 +13579,56 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="B26" s="52" t="s">
-        <v>225</v>
+      <c r="B26" s="31" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A27" s="53">
+      <c r="A27" s="32">
         <v>1</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>212</v>
+      <c r="B27" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A28" s="53">
+      <c r="A28" s="32">
         <v>2</v>
       </c>
-      <c r="B28" s="50" t="s">
-        <v>213</v>
+      <c r="B28" s="29" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A29" s="53">
+      <c r="A29" s="32">
         <v>3</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>210</v>
+      <c r="B29" s="30" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A30" s="53">
+      <c r="A30" s="32">
         <v>4</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>211</v>
+      <c r="B30" s="30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A31" s="53">
+      <c r="A31" s="32">
         <v>5</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>214</v>
+      <c r="B31" s="30" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A32" s="53">
+      <c r="A32" s="32">
         <v>6</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>215</v>
+      <c r="B32" s="29" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -15582,51 +13877,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4113" r:id="rId14" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4114" r:id="rId15" name="Check Box 18">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4115" r:id="rId16" name="Check Box 19">
+            <control shapeId="4115" r:id="rId14" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15648,7 +13899,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4116" r:id="rId17" name="Check Box 20">
+            <control shapeId="4116" r:id="rId15" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15670,7 +13921,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4117" r:id="rId18" name="Check Box 21">
+            <control shapeId="4117" r:id="rId16" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15692,7 +13943,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4118" r:id="rId19" name="Check Box 22">
+            <control shapeId="4118" r:id="rId17" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15714,7 +13965,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4119" r:id="rId20" name="Check Box 23">
+            <control shapeId="4119" r:id="rId18" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15736,7 +13987,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4120" r:id="rId21" name="Check Box 24">
+            <control shapeId="4120" r:id="rId19" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15766,8 +14017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582083BC-7587-4DA7-9659-6E9AFDB0EA56}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -15786,22 +14037,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -15813,15 +14064,15 @@
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="14" t="s">
@@ -15833,15 +14084,15 @@
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
@@ -15857,10 +14108,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>49</v>
@@ -15868,22 +14119,22 @@
       <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="34"/>
     </row>
-    <row r="6" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" ht="123" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
       <c r="E6" s="24" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2" t="s">
@@ -15901,15 +14152,15 @@
     </row>
     <row r="7" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5"/>
       <c r="E7" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
@@ -15927,15 +14178,15 @@
     </row>
     <row r="8" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="2" t="s">
@@ -15951,17 +14202,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5"/>
       <c r="E9" s="24" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="2" t="s">
@@ -15979,15 +14230,15 @@
     </row>
     <row r="10" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2" t="s">
@@ -16017,7 +14268,7 @@
     </row>
     <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A12" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
@@ -16030,15 +14281,15 @@
       <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A14" s="14" t="s">
@@ -16050,15 +14301,15 @@
       <c r="C14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A15" s="10" t="s">
@@ -16074,10 +14325,10 @@
         <v>48</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>49</v>
@@ -16085,22 +14336,22 @@
       <c r="H15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="2" t="s">
@@ -16118,15 +14369,15 @@
     </row>
     <row r="17" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2" t="s">
@@ -16144,15 +14395,15 @@
     </row>
     <row r="18" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A18" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
       <c r="E18" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="2" t="s">
@@ -16170,15 +14421,15 @@
     </row>
     <row r="19" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A19" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="5"/>
       <c r="E19" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="2" t="s">
@@ -16196,15 +14447,15 @@
     </row>
     <row r="20" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="5"/>
       <c r="E20" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="2" t="s">
@@ -16222,15 +14473,15 @@
     </row>
     <row r="21" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A21" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="5"/>
       <c r="E21" s="24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="2" t="s">
@@ -16248,7 +14499,7 @@
     </row>
     <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A23" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.7">
@@ -16261,15 +14512,15 @@
       <c r="C24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A25" s="14" t="s">
@@ -16281,15 +14532,15 @@
       <c r="C25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A26" s="10" t="s">
@@ -16305,10 +14556,10 @@
         <v>48</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>49</v>
@@ -16316,22 +14567,22 @@
       <c r="H26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="42"/>
+      <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A27" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="2"/>
       <c r="E27" s="24" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="2" t="s">
@@ -16347,17 +14598,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A28" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="5"/>
       <c r="E28" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="2" t="s">
@@ -16373,17 +14624,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A29" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="5"/>
       <c r="E29" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="2" t="s">
@@ -16401,7 +14652,7 @@
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A31" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.7">
@@ -16414,35 +14665,35 @@
       <c r="C32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A33" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
+      <c r="D33" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A34" s="10" t="s">
@@ -16458,10 +14709,10 @@
         <v>48</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>49</v>
@@ -16469,22 +14720,22 @@
       <c r="H34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="42"/>
+      <c r="J34" s="34"/>
     </row>
-    <row r="35" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:10" ht="147.6" x14ac:dyDescent="0.7">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
       <c r="E35" s="24" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
@@ -16500,17 +14751,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="5"/>
       <c r="E36" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
@@ -16526,17 +14777,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A37" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="5"/>
       <c r="E37" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
@@ -16554,6 +14805,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D33:J33"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="D14:J14"/>
@@ -16562,11 +14818,6 @@
     <mergeCell ref="D25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="D32:J32"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -17156,95 +15407,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5151" r:id="rId30" name="Check Box 31">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5152" r:id="rId31" name="Check Box 32">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5157" r:id="rId32" name="Check Box 37">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5158" r:id="rId33" name="Check Box 38">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5159" r:id="rId34" name="Check Box 39">
+            <control shapeId="5159" r:id="rId30" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -17266,7 +15429,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="5160" r:id="rId35" name="Check Box 40">
+            <control shapeId="5160" r:id="rId31" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -17286,94 +15449,6 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5161" r:id="rId36" name="Check Box 41">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5162" r:id="rId37" name="Check Box 42">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5163" r:id="rId38" name="Check Box 43">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5164" r:id="rId39" name="Check Box 44">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -17382,10 +15457,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BC18E1-5B36-411A-BFAB-3771C8B534C4}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -17404,22 +15479,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -17431,15 +15506,15 @@
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="14" t="s">
@@ -17451,15 +15526,15 @@
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
@@ -17475,10 +15550,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>49</v>
@@ -17486,22 +15561,22 @@
       <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="34"/>
     </row>
-    <row r="6" spans="1:10" ht="147.6" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
       <c r="E6" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2" t="s">
@@ -17519,15 +15594,15 @@
     </row>
     <row r="7" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5"/>
       <c r="E7" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
@@ -17545,15 +15620,15 @@
     </row>
     <row r="8" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="2" t="s">
@@ -17569,17 +15644,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5"/>
       <c r="E9" s="24" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="2" t="s">
@@ -17597,15 +15672,15 @@
     </row>
     <row r="10" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="24" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2" t="s">
@@ -17623,15 +15698,15 @@
     </row>
     <row r="11" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="5"/>
       <c r="E11" s="24" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="2" t="s">
@@ -17649,15 +15724,15 @@
     </row>
     <row r="12" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="5"/>
       <c r="E12" s="24" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="2" t="s">
@@ -17675,15 +15750,15 @@
     </row>
     <row r="13" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A13" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="5"/>
       <c r="E13" s="24" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2" t="s">
@@ -17699,17 +15774,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A14" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="24" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="2" t="s">
@@ -17727,15 +15802,15 @@
     </row>
     <row r="15" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A15" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="5"/>
       <c r="E15" s="24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="2" t="s">
@@ -17765,7 +15840,7 @@
     </row>
     <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A17" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.7">
@@ -17778,15 +15853,15 @@
       <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="14" t="s">
@@ -17798,15 +15873,15 @@
       <c r="C19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A20" s="10" t="s">
@@ -17822,10 +15897,10 @@
         <v>48</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>49</v>
@@ -17833,22 +15908,22 @@
       <c r="H20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="42"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A21" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="2" t="s">
@@ -17866,15 +15941,15 @@
     </row>
     <row r="22" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A22" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
@@ -17892,15 +15967,15 @@
     </row>
     <row r="23" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A23" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2" t="s">
@@ -17918,15 +15993,15 @@
     </row>
     <row r="24" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
@@ -17944,15 +16019,15 @@
     </row>
     <row r="25" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A25" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="s">
@@ -17970,15 +16045,15 @@
     </row>
     <row r="26" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A26" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="2" t="s">
@@ -17996,15 +16071,15 @@
     </row>
     <row r="27" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A27" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="5"/>
       <c r="E27" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="2" t="s">
@@ -18022,15 +16097,15 @@
     </row>
     <row r="28" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A28" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="5"/>
       <c r="E28" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="2" t="s">
@@ -18048,15 +16123,15 @@
     </row>
     <row r="29" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A29" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="5"/>
       <c r="E29" s="24" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="2" t="s">
@@ -18074,15 +16149,15 @@
     </row>
     <row r="30" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A30" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="5"/>
       <c r="E30" s="24" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="2" t="s">
@@ -18098,17 +16173,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A31" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="5"/>
       <c r="E31" s="24" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="2" t="s">
@@ -18124,412 +16199,334 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="2" t="s">
+    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.7">
+      <c r="A33" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="52"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" spans="1:10" ht="123" x14ac:dyDescent="0.7">
+      <c r="A37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A33" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="2" t="s">
+    <row r="38" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A34" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="26" t="s">
+    <row r="39" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.7">
+      <c r="A41" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A43" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="2" t="s">
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="34"/>
+    </row>
+    <row r="45" spans="1:10" ht="147.6" x14ac:dyDescent="0.7">
+      <c r="A45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.7">
-      <c r="A36" s="21" t="s">
-        <v>59</v>
+    <row r="46" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A37" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A38" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="42"/>
-    </row>
-    <row r="40" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="26" t="s">
+    <row r="47" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="24" t="s">
+      <c r="C47" s="16"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="2" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.7">
-      <c r="A44" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A45" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A46" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="48"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="42"/>
-    </row>
-    <row r="48" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A50" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="D46:J46"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="D18:J18"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D43:J43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test scenarios'!A1" display="ย้อนกลับ" xr:uid="{6DD7A42A-2E35-497C-9F64-4BF72E1D90CE}"/>
     <hyperlink ref="A17" location="'Test scenarios'!A1" display="ย้อนกลับ" xr:uid="{E977CF16-AB83-4AC3-8B38-73EA6EBEF810}"/>
-    <hyperlink ref="A36" location="'Test scenarios'!A1" display="ย้อนกลับ" xr:uid="{50D593C7-02AA-4A64-9BAC-06CD34B4DBC0}"/>
-    <hyperlink ref="A44" location="'Test scenarios'!A1" display="ย้อนกลับ" xr:uid="{02C2C6C3-C3F6-4181-9B9A-C5CCF76E49D7}"/>
+    <hyperlink ref="A33" location="'Test scenarios'!A1" display="ย้อนกลับ" xr:uid="{50D593C7-02AA-4A64-9BAC-06CD34B4DBC0}"/>
+    <hyperlink ref="A41" location="'Test scenarios'!A1" display="ย้อนกลับ" xr:uid="{02C2C6C3-C3F6-4181-9B9A-C5CCF76E49D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18760,7 +16757,315 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7179" r:id="rId14" name="Check Box 11">
+            <control shapeId="7193" r:id="rId14" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7194" r:id="rId15" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7199" r:id="rId16" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7200" r:id="rId17" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7205" r:id="rId18" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7206" r:id="rId19" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7207" r:id="rId20" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7208" r:id="rId21" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7209" r:id="rId22" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7210" r:id="rId23" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7211" r:id="rId24" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7212" r:id="rId25" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7213" r:id="rId26" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7214" r:id="rId27" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>289560</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7179" r:id="rId28" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -18782,7 +17087,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7180" r:id="rId15" name="Check Box 12">
+            <control shapeId="7180" r:id="rId29" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -18804,7 +17109,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7181" r:id="rId16" name="Check Box 13">
+            <control shapeId="7181" r:id="rId30" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -18826,7 +17131,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7182" r:id="rId17" name="Check Box 14">
+            <control shapeId="7182" r:id="rId31" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -18848,19 +17153,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7185" r:id="rId18" name="Check Box 17">
+            <control shapeId="7185" r:id="rId32" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>289560</xdr:rowOff>
                   </to>
                 </anchor>
@@ -18870,19 +17175,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7186" r:id="rId19" name="Check Box 18">
+            <control shapeId="7186" r:id="rId33" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>289560</xdr:rowOff>
                   </to>
                 </anchor>
@@ -18892,7 +17197,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7187" r:id="rId20" name="Check Box 19">
+            <control shapeId="7187" r:id="rId34" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -18914,7 +17219,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7188" r:id="rId21" name="Check Box 20">
+            <control shapeId="7188" r:id="rId35" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -18936,7 +17241,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7189" r:id="rId22" name="Check Box 21">
+            <control shapeId="7189" r:id="rId36" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -18958,7 +17263,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7190" r:id="rId23" name="Check Box 22">
+            <control shapeId="7190" r:id="rId37" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -18980,7 +17285,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7191" r:id="rId24" name="Check Box 23">
+            <control shapeId="7191" r:id="rId38" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19002,7 +17307,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7192" r:id="rId25" name="Check Box 24">
+            <control shapeId="7192" r:id="rId39" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19024,491 +17329,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7193" r:id="rId26" name="Check Box 25">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7194" r:id="rId27" name="Check Box 26">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7195" r:id="rId28" name="Check Box 27">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>40</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>40</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7196" r:id="rId29" name="Check Box 28">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>40</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>40</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7197" r:id="rId30" name="Check Box 29">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7198" r:id="rId31" name="Check Box 30">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7199" r:id="rId32" name="Check Box 31">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7200" r:id="rId33" name="Check Box 32">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7201" r:id="rId34" name="Check Box 33">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>48</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>48</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7202" r:id="rId35" name="Check Box 34">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>48</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>48</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7203" r:id="rId36" name="Check Box 35">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>49</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7204" r:id="rId37" name="Check Box 36">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>49</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7205" r:id="rId38" name="Check Box 37">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7206" r:id="rId39" name="Check Box 38">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7207" r:id="rId40" name="Check Box 39">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7208" r:id="rId41" name="Check Box 40">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7209" r:id="rId42" name="Check Box 41">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7210" r:id="rId43" name="Check Box 42">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7211" r:id="rId44" name="Check Box 43">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7212" r:id="rId45" name="Check Box 44">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7213" r:id="rId46" name="Check Box 45">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7214" r:id="rId47" name="Check Box 46">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7215" r:id="rId48" name="Check Box 47">
+            <control shapeId="7215" r:id="rId40" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19530,7 +17351,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7216" r:id="rId49" name="Check Box 48">
+            <control shapeId="7216" r:id="rId41" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19552,7 +17373,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7217" r:id="rId50" name="Check Box 49">
+            <control shapeId="7217" r:id="rId42" name="Check Box 49">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19574,7 +17395,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7218" r:id="rId51" name="Check Box 50">
+            <control shapeId="7218" r:id="rId43" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19596,7 +17417,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7219" r:id="rId52" name="Check Box 51">
+            <control shapeId="7219" r:id="rId44" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19618,7 +17439,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7220" r:id="rId53" name="Check Box 52">
+            <control shapeId="7220" r:id="rId45" name="Check Box 52">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19640,7 +17461,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7221" r:id="rId54" name="Check Box 53">
+            <control shapeId="7221" r:id="rId46" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19662,7 +17483,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7222" r:id="rId55" name="Check Box 54">
+            <control shapeId="7222" r:id="rId47" name="Check Box 54">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19684,7 +17505,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7223" r:id="rId56" name="Check Box 55">
+            <control shapeId="7225" r:id="rId48" name="Check Box 57">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19706,7 +17527,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7224" r:id="rId57" name="Check Box 56">
+            <control shapeId="7226" r:id="rId49" name="Check Box 58">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -19719,138 +17540,6 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7225" r:id="rId58" name="Check Box 57">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7226" r:id="rId59" name="Check Box 58">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7227" r:id="rId60" name="Check Box 59">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7228" r:id="rId61" name="Check Box 60">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7229" r:id="rId62" name="Check Box 61">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>289560</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7230" r:id="rId63" name="Check Box 62">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
-                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>289560</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19888,22 +17577,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="14" t="s">
@@ -19915,15 +17604,15 @@
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="14" t="s">
@@ -19935,15 +17624,15 @@
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
@@ -19959,10 +17648,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>49</v>
@@ -19970,22 +17659,22 @@
       <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="24" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2" t="s">
@@ -20003,15 +17692,15 @@
     </row>
     <row r="7" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5"/>
       <c r="E7" s="24" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
@@ -20029,7 +17718,7 @@
     </row>
     <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.7">
@@ -20042,15 +17731,15 @@
       <c r="C10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A11" s="14" t="s">
@@ -20062,15 +17751,15 @@
       <c r="C11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A12" s="10" t="s">
@@ -20086,10 +17775,10 @@
         <v>48</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>49</v>
@@ -20097,22 +17786,22 @@
       <c r="H12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="42"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A13" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="5"/>
       <c r="E13" s="24" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2" t="s">
@@ -20130,15 +17819,15 @@
     </row>
     <row r="14" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A14" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="24" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="2" t="s">
@@ -20156,15 +17845,15 @@
     </row>
     <row r="15" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A15" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="5"/>
       <c r="E15" s="24" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="2" t="s">

--- a/เอกสารการทดสอบระบบ/System_test_DPML.xlsx
+++ b/เอกสารการทดสอบระบบ/System_test_DPML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\First-AP\Desktop\Homework\4th Year\CSI_project\เอกสารการทดสอบระบบ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F1A11-7307-4CE0-BC50-15D340A559B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F54CC-C5C2-4789-8C0C-FED79C1B3E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C84F4602-E6E0-45CB-89B2-39096823FACA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C84F4602-E6E0-45CB-89B2-39096823FACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Test scenarios" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="280">
   <si>
     <t>การทดสอบการทำงานของระบบ DPML</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Test date</t>
-  </si>
-  <si>
-    <t>Test time</t>
   </si>
   <si>
     <t>Execution by</t>
@@ -922,6 +919,15 @@
   </si>
   <si>
     <t>DPML-04-2-14</t>
+  </si>
+  <si>
+    <t>15/09/2020</t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>Test time (Second)</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1241,6 +1247,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,39 +1311,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1304,16 +1323,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1341,7 +1353,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1361,7 +1373,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1369,7 +1381,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,7 +1389,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,11 +1397,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1397,7 +1409,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1405,7 +1417,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1413,7 +1425,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1421,7 +1433,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,7 +1441,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,7 +1453,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1449,7 +1461,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1457,7 +1469,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1465,7 +1477,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1473,7 +1485,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1485,7 +1497,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1493,7 +1505,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1501,7 +1513,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1509,7 +1521,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1517,7 +1529,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1529,7 +1541,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp142.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1537,7 +1549,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp143.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp144.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1545,7 +1557,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp146.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1553,7 +1565,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp147.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp148.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,11 +1573,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp149.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp150.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1573,7 +1585,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp151.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp152.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1581,7 +1593,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp153.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp154.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1589,7 +1601,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp155.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp156.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1597,7 +1609,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp157.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp158.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,7 +1617,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp159.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1617,7 +1629,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp161.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp162.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1625,7 +1637,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp163.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp164.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1633,7 +1645,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp165.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp166.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1641,7 +1653,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp167.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp168.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1649,11 +1661,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp169.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp170.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1661,7 +1673,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp171.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp172.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1669,7 +1681,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp173.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1685,7 +1697,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1693,7 +1705,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1705,7 +1717,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1717,7 +1729,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1733,7 +1745,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1741,7 +1753,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1753,7 +1765,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1829,7 +1841,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1841,7 +1853,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1877,7 +1889,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1889,7 +1901,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1897,7 +1909,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1905,11 +1917,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1917,7 +1929,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1925,11 +1937,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1937,7 +1949,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1945,7 +1957,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1953,7 +1965,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1961,7 +1973,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1969,7 +1981,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1981,7 +1993,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1989,7 +2001,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1997,7 +2009,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2005,7 +2017,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2013,11 +2025,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2025,7 +2037,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2033,7 +2045,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2041,7 +2053,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2049,7 +2061,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2057,7 +2069,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5290,14 +5302,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4121" name="Check Box 25" hidden="1">
@@ -5306,7 +5323,7 @@
                   <a14:compatExt spid="_x0000_s4121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC3C826-C60B-4057-AC9E-C1A529D185DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5346,20 +5363,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4122" name="Check Box 26" hidden="1">
@@ -5368,7 +5390,7 @@
                   <a14:compatExt spid="_x0000_s4122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CE9D11-D2D6-4EBF-B4C2-86FB78A27020}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5408,20 +5430,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4123" name="Check Box 27" hidden="1">
@@ -5430,7 +5457,7 @@
                   <a14:compatExt spid="_x0000_s4123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C070BEB-6969-4DF3-A0F3-0EA244F60952}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5470,20 +5497,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4124" name="Check Box 28" hidden="1">
@@ -5492,7 +5524,7 @@
                   <a14:compatExt spid="_x0000_s4124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3103E81E-364A-4809-A47E-0FFFD2CF2D25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5532,20 +5564,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4127" name="Check Box 31" hidden="1">
@@ -5554,7 +5591,7 @@
                   <a14:compatExt spid="_x0000_s4127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60340C80-5DAE-45D9-97EE-5088FE26E4C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5594,20 +5631,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4128" name="Check Box 32" hidden="1">
@@ -5616,7 +5658,7 @@
                   <a14:compatExt spid="_x0000_s4128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148B6CE5-E974-468F-AF3E-CF47B49AFB5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5656,20 +5698,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4131" name="Check Box 35" hidden="1">
@@ -5678,7 +5725,7 @@
                   <a14:compatExt spid="_x0000_s4131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3A282C-5AC5-46ED-A10A-275CC76AFC1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5718,20 +5765,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4132" name="Check Box 36" hidden="1">
@@ -5740,7 +5792,7 @@
                   <a14:compatExt spid="_x0000_s4132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FDAB05-E434-4732-8F8E-1C1E22A006E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5780,20 +5832,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4138" name="Check Box 42" hidden="1">
@@ -5802,7 +5859,7 @@
                   <a14:compatExt spid="_x0000_s4138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68521942-AA19-4060-9190-BB19BE6C34CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5842,20 +5899,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4139" name="Check Box 43" hidden="1">
@@ -5864,7 +5926,7 @@
                   <a14:compatExt spid="_x0000_s4139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9096E55-F871-46AF-AE76-E68091623B94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5904,20 +5966,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4140" name="Check Box 44" hidden="1">
@@ -5926,7 +5993,7 @@
                   <a14:compatExt spid="_x0000_s4140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE02BF1-11C6-45DE-8C40-81AE0649B44F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5966,20 +6033,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4147" name="Check Box 51" hidden="1">
@@ -5988,7 +6060,7 @@
                   <a14:compatExt spid="_x0000_s4147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90ABAB8-7C4D-43DF-80CD-703411C3BCCE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6028,20 +6100,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4148" name="Check Box 52" hidden="1">
@@ -6050,7 +6127,7 @@
                   <a14:compatExt spid="_x0000_s4148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57629237-BAD1-49A2-97E8-5FF330B52520}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6090,20 +6167,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4151" name="Check Box 55" hidden="1">
@@ -6112,7 +6194,7 @@
                   <a14:compatExt spid="_x0000_s4151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DB28CC-EA0E-4EE6-8F3B-9F416A77A94B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6152,20 +6234,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4152" name="Check Box 56" hidden="1">
@@ -6174,7 +6261,7 @@
                   <a14:compatExt spid="_x0000_s4152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE4A995-2E64-449C-BE95-097AAAFD5286}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6214,20 +6301,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4153" name="Check Box 57" hidden="1">
@@ -6236,7 +6328,7 @@
                   <a14:compatExt spid="_x0000_s4153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A7DD66-89E6-42DC-8D3D-2436A5257FEF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6276,7 +6368,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -8029,14 +8121,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5161" name="Check Box 41" hidden="1">
@@ -8045,7 +8142,7 @@
                   <a14:compatExt spid="_x0000_s5161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E30C76-5AB4-41F2-B5F5-788E43BF9F42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8085,20 +8182,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5162" name="Check Box 42" hidden="1">
@@ -8107,7 +8209,7 @@
                   <a14:compatExt spid="_x0000_s5162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D5749C-CA12-467C-BBA0-4739AF24BBA2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8147,20 +8249,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5163" name="Check Box 43" hidden="1">
@@ -8169,7 +8276,7 @@
                   <a14:compatExt spid="_x0000_s5163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC366D1C-904D-45E1-9E1B-BE453B1141C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8209,20 +8316,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5164" name="Check Box 44" hidden="1">
@@ -8231,7 +8343,7 @@
                   <a14:compatExt spid="_x0000_s5164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9646C009-6EFB-4BE7-AEBF-6F6DDE59A736}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8271,20 +8383,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5165" name="Check Box 45" hidden="1">
@@ -8293,7 +8410,7 @@
                   <a14:compatExt spid="_x0000_s5165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A680CB-F042-46D1-9B11-9CAA3CA235F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8333,20 +8450,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5166" name="Check Box 46" hidden="1">
@@ -8355,7 +8477,7 @@
                   <a14:compatExt spid="_x0000_s5166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E2E181-86BE-47FB-8A7B-A36A44E21B86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8395,20 +8517,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5167" name="Check Box 47" hidden="1">
@@ -8417,7 +8544,7 @@
                   <a14:compatExt spid="_x0000_s5167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58FDE99-C085-4F71-95FA-DC16DEAA7F84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8457,20 +8584,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5168" name="Check Box 48" hidden="1">
@@ -8479,7 +8611,7 @@
                   <a14:compatExt spid="_x0000_s5168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E92F175-5171-4528-B3DA-B92754E98C26}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8519,20 +8651,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5169" name="Check Box 49" hidden="1">
@@ -8541,7 +8678,7 @@
                   <a14:compatExt spid="_x0000_s5169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D6146A-B4DD-40DF-BA93-2FA60D3159CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8581,20 +8718,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5170" name="Check Box 50" hidden="1">
@@ -8603,7 +8745,7 @@
                   <a14:compatExt spid="_x0000_s5170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C44600-7FC5-460C-9906-467A5F18AA78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8643,20 +8785,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5171" name="Check Box 51" hidden="1">
@@ -8665,7 +8812,7 @@
                   <a14:compatExt spid="_x0000_s5171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFA35EB-6A42-4D3B-9B93-3AA3EAB4C428}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8705,20 +8852,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5172" name="Check Box 52" hidden="1">
@@ -8727,7 +8879,7 @@
                   <a14:compatExt spid="_x0000_s5172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C194BCB3-DD5D-4037-A5EE-92E786E213D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8767,20 +8919,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5173" name="Check Box 53" hidden="1">
@@ -8789,7 +8946,7 @@
                   <a14:compatExt spid="_x0000_s5173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466E8F40-ED3B-4553-A328-B4903060064C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8829,20 +8986,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5174" name="Check Box 54" hidden="1">
@@ -8851,7 +9013,7 @@
                   <a14:compatExt spid="_x0000_s5174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC20C87D-769D-4AE5-9E8C-2BBDA2053B9E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8891,20 +9053,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5175" name="Check Box 55" hidden="1">
@@ -8913,7 +9080,7 @@
                   <a14:compatExt spid="_x0000_s5175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A71C31-8F2E-4857-822C-ADA0617A16A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8953,20 +9120,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5176" name="Check Box 56" hidden="1">
@@ -8975,7 +9147,7 @@
                   <a14:compatExt spid="_x0000_s5176"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3D2F58-91F6-4E3E-ABB6-5085E610E142}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9015,7 +9187,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -12108,14 +12280,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7227" name="Check Box 59" hidden="1">
@@ -12124,7 +12301,7 @@
                   <a14:compatExt spid="_x0000_s7227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EE74D5-FE4C-4558-BEE6-ACD00C200E06}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12164,20 +12341,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7228" name="Check Box 60" hidden="1">
@@ -12186,7 +12368,7 @@
                   <a14:compatExt spid="_x0000_s7228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9102888-4B68-4FF9-80D1-31C158BAFEB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12226,20 +12408,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7229" name="Check Box 61" hidden="1">
@@ -12248,7 +12435,7 @@
                   <a14:compatExt spid="_x0000_s7229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBBED0C-94BA-4C01-8DAD-6018AA2858B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12288,20 +12475,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7230" name="Check Box 62" hidden="1">
@@ -12310,7 +12502,7 @@
                   <a14:compatExt spid="_x0000_s7230"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99266911-5FE9-479E-83AE-10E2C3617D14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12350,20 +12542,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7231" name="Check Box 63" hidden="1">
@@ -12372,7 +12569,7 @@
                   <a14:compatExt spid="_x0000_s7231"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46766737-AC7F-42EF-B608-714EEE140A14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12412,20 +12609,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7232" name="Check Box 64" hidden="1">
@@ -12434,7 +12636,7 @@
                   <a14:compatExt spid="_x0000_s7232"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BADDF9-A673-4D81-8DFE-C40734116CDD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000401C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12474,20 +12676,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7233" name="Check Box 65" hidden="1">
@@ -12496,7 +12703,7 @@
                   <a14:compatExt spid="_x0000_s7233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D0085E-C001-4A29-B5BB-765F91A5A17A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000411C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12536,20 +12743,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7234" name="Check Box 66" hidden="1">
@@ -12558,7 +12770,7 @@
                   <a14:compatExt spid="_x0000_s7234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BA7834-5A60-44B3-90A3-7CA78B0CA6C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000421C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12598,20 +12810,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7235" name="Check Box 67" hidden="1">
@@ -12620,7 +12837,7 @@
                   <a14:compatExt spid="_x0000_s7235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D31C7D-0F5B-42E9-8FAB-3A9C0C891216}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000431C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12660,20 +12877,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7236" name="Check Box 68" hidden="1">
@@ -12682,7 +12904,7 @@
                   <a14:compatExt spid="_x0000_s7236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E26F96-DDF1-447C-BF55-38E04ED6646C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000441C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12722,20 +12944,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7237" name="Check Box 69" hidden="1">
@@ -12744,7 +12971,7 @@
                   <a14:compatExt spid="_x0000_s7237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2A98BB-F786-4ECF-ADFC-A5B43574B178}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000451C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12784,20 +13011,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7238" name="Check Box 70" hidden="1">
@@ -12806,7 +13038,7 @@
                   <a14:compatExt spid="_x0000_s7238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D67DF8-9FF1-47CA-9CC7-2931E649B031}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000461C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12846,20 +13078,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7239" name="Check Box 71" hidden="1">
@@ -12868,7 +13105,7 @@
                   <a14:compatExt spid="_x0000_s7239"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB71517-7A85-4205-906E-E2A5B203A9ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000471C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12908,20 +13145,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7240" name="Check Box 72" hidden="1">
@@ -12930,7 +13172,7 @@
                   <a14:compatExt spid="_x0000_s7240"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED039DD9-BCA1-41AA-9F34-3FDEB2168B57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000481C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12970,20 +13212,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7241" name="Check Box 73" hidden="1">
@@ -12992,7 +13239,7 @@
                   <a14:compatExt spid="_x0000_s7241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73BB541-1B38-4987-87A0-C63F960DCC50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000491C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13032,20 +13279,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="251460" cy="228600"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>289560</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7242" name="Check Box 74" hidden="1">
@@ -13054,7 +13306,7 @@
                   <a14:compatExt spid="_x0000_s7242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4084AAB6-FEEA-4245-89A3-3760325CE37A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13094,7 +13346,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -14209,8 +14461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AEB24-A98D-47BA-BB32-7812164A8B5A}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -14225,39 +14477,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.4" x14ac:dyDescent="1.45">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
@@ -14265,10 +14517,10 @@
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="2">
@@ -14278,7 +14530,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>7</v>
@@ -14294,14 +14546,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A5" s="36">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>206</v>
+      <c r="C5" s="40" t="s">
+        <v>205</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -14317,9 +14569,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="20" t="s">
         <v>16</v>
       </c>
@@ -14334,9 +14586,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="20" t="s">
         <v>17</v>
       </c>
@@ -14351,14 +14603,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A8" s="30">
+      <c r="A8" s="46">
         <v>3</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>207</v>
+      <c r="C8" s="49" t="s">
+        <v>206</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>23</v>
@@ -14374,9 +14626,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
@@ -14391,9 +14643,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
@@ -14408,14 +14660,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>9</v>
@@ -14425,14 +14677,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A12" s="36">
+      <c r="A12" s="43">
         <v>4</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>208</v>
+      <c r="C12" s="40" t="s">
+        <v>207</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>28</v>
@@ -14448,9 +14700,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
@@ -14465,9 +14717,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="20" t="s">
         <v>30</v>
       </c>
@@ -14482,14 +14734,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="41"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>9</v>
@@ -14499,14 +14751,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A16" s="30">
+      <c r="A16" s="46">
         <v>5</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>209</v>
+      <c r="C16" s="49" t="s">
+        <v>208</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>34</v>
@@ -14522,9 +14774,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="19" t="s">
         <v>36</v>
       </c>
@@ -14540,12 +14792,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C8:C11"/>
@@ -14555,6 +14801,12 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -15208,16 +15460,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4598D7E-0DC4-491C-9E80-4581446815A4}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.6640625" style="1" customWidth="1"/>
@@ -15226,42 +15479,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -15273,15 +15526,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="6" t="s">
@@ -15294,43 +15547,49 @@
         <v>41</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+      <c r="A6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.3040000000000003</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="43"/>
-    </row>
-    <row r="6" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A6" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -15339,24 +15598,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A7" s="53" t="s">
-        <v>66</v>
+    <row r="7" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+      <c r="A7" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.2359999999999998</v>
+      </c>
       <c r="E7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
@@ -15366,23 +15631,29 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A8" s="53" t="s">
-        <v>67</v>
+      <c r="A8" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.8280000000000003</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>9</v>
@@ -15392,23 +15663,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A9" s="53" t="s">
-        <v>68</v>
+      <c r="A9" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.7809999999999997</v>
+      </c>
       <c r="E9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
@@ -15418,23 +15695,29 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A10" s="53" t="s">
-        <v>69</v>
+      <c r="A10" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.7919999999999998</v>
+      </c>
       <c r="E10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
@@ -15691,8 +15974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E9E5E0-1A19-4413-9271-D7F62269F354}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -15700,9 +15983,8 @@
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.6640625" style="1" customWidth="1"/>
@@ -15712,42 +15994,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -15759,15 +16041,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="7" t="s">
@@ -15780,43 +16062,49 @@
         <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A6" s="51" t="s">
-        <v>61</v>
+      <c r="A6" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.4530000000000003</v>
+      </c>
       <c r="E6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -15826,23 +16114,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
-        <v>62</v>
+      <c r="A7" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.4749999999999996</v>
+      </c>
       <c r="E7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
@@ -15852,23 +16146,29 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A8" s="51" t="s">
-        <v>215</v>
+      <c r="A8" s="31" t="s">
+        <v>214</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.3140000000000001</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>9</v>
@@ -15878,23 +16178,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A9" s="51" t="s">
-        <v>216</v>
+      <c r="A9" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.3369999999999997</v>
+      </c>
       <c r="E9" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
@@ -15904,23 +16210,29 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A10" s="52" t="s">
-        <v>217</v>
+      <c r="A10" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7.9480000000000004</v>
+      </c>
       <c r="E10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
@@ -15930,23 +16242,29 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A11" s="52" t="s">
-        <v>218</v>
+      <c r="A11" s="32" t="s">
+        <v>217</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.1859999999999999</v>
+      </c>
       <c r="E11" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>9</v>
@@ -15967,28 +16285,28 @@
     </row>
     <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A16" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A17" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
+        <v>210</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A18" s="11" t="s">
@@ -16000,15 +16318,15 @@
       <c r="C18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="7" t="s">
@@ -16020,20 +16338,20 @@
       <c r="C19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>4</v>
@@ -16041,23 +16359,29 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A20" s="51" t="s">
-        <v>63</v>
+      <c r="A20" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7.423</v>
+      </c>
       <c r="E20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>9</v>
@@ -16067,23 +16391,29 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A21" s="52" t="s">
-        <v>64</v>
+      <c r="A21" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7.2590000000000003</v>
+      </c>
       <c r="E21" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>9</v>
@@ -16094,28 +16424,28 @@
     </row>
     <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A23" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A24" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
+        <v>210</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A25" s="11" t="s">
@@ -16127,15 +16457,15 @@
       <c r="C25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A26" s="7" t="s">
@@ -16147,20 +16477,20 @@
       <c r="C26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>4</v>
@@ -16168,23 +16498,29 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A27" s="51" t="s">
-        <v>189</v>
+      <c r="A27" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7.7060000000000004</v>
+      </c>
       <c r="E27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>9</v>
@@ -16194,23 +16530,27 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="73.8" hidden="1" x14ac:dyDescent="0.7">
-      <c r="A28" s="51" t="s">
-        <v>190</v>
+      <c r="A28" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>9</v>
@@ -16220,23 +16560,29 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A29" s="51" t="s">
-        <v>190</v>
+      <c r="A29" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9.5549999999999997</v>
+      </c>
       <c r="E29" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>192</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>9</v>
@@ -16246,23 +16592,29 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A30" s="53" t="s">
-        <v>191</v>
+      <c r="A30" s="33" t="s">
+        <v>190</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9.9600000000000009</v>
+      </c>
       <c r="E30" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>193</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>9</v>
@@ -16272,23 +16624,29 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="123" x14ac:dyDescent="0.7">
-      <c r="A31" s="53" t="s">
-        <v>192</v>
+      <c r="A31" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9.0310000000000006</v>
+      </c>
       <c r="E31" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>9</v>
@@ -16298,23 +16656,29 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="C32" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="2">
+        <v>30</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="21" t="s">
+        <v>267</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>9</v>
@@ -16325,7 +16689,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B34" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="49.2" x14ac:dyDescent="0.7">
@@ -16333,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="49.2" x14ac:dyDescent="0.7">
@@ -16341,7 +16705,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.7">
@@ -16349,7 +16713,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.7">
@@ -16357,7 +16721,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.7">
@@ -16365,7 +16729,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="49.2" x14ac:dyDescent="0.7">
@@ -16373,7 +16737,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -16982,8 +17346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582083BC-7587-4DA7-9659-6E9AFDB0EA56}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -16991,9 +17355,8 @@
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.6640625" style="1" customWidth="1"/>
@@ -17002,42 +17365,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -17049,15 +17412,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="7" t="s">
@@ -17070,43 +17433,49 @@
         <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="123" x14ac:dyDescent="0.7">
-      <c r="A6" s="51" t="s">
-        <v>76</v>
+      <c r="A6" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11.885</v>
+      </c>
       <c r="E6" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -17116,23 +17485,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A7" s="53" t="s">
-        <v>77</v>
+      <c r="A7" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.391</v>
+      </c>
       <c r="E7" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
@@ -17142,23 +17517,29 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A8" s="53" t="s">
-        <v>78</v>
+      <c r="A8" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.4689999999999994</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>9</v>
@@ -17168,23 +17549,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A9" s="53" t="s">
-        <v>83</v>
+      <c r="A9" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.3640000000000008</v>
+      </c>
       <c r="E9" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>196</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
@@ -17194,23 +17581,29 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A10" s="53" t="s">
-        <v>84</v>
+      <c r="A10" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.9</v>
+      </c>
       <c r="E10" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
@@ -17220,23 +17613,29 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A11" s="53" t="s">
-        <v>269</v>
+      <c r="A11" s="33" t="s">
+        <v>268</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
       <c r="E11" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>272</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>9</v>
@@ -17259,28 +17658,28 @@
     </row>
     <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A14" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A15" s="11" t="s">
@@ -17292,15 +17691,15 @@
       <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A16" s="7" t="s">
@@ -17312,44 +17711,50 @@
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A17" s="51" t="s">
-        <v>96</v>
+      <c r="A17" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="2">
+        <v>11.208</v>
+      </c>
       <c r="E17" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>9</v>
@@ -17359,23 +17764,29 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A18" s="51" t="s">
-        <v>97</v>
+      <c r="A18" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10.093</v>
+      </c>
       <c r="E18" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>9</v>
@@ -17385,23 +17796,29 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A19" s="51" t="s">
-        <v>98</v>
+      <c r="A19" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10.894</v>
+      </c>
       <c r="E19" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>9</v>
@@ -17411,23 +17828,29 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A20" s="53" t="s">
-        <v>99</v>
+      <c r="A20" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="5"/>
+        <v>231</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9.4130000000000003</v>
+      </c>
       <c r="E20" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>9</v>
@@ -17437,23 +17860,29 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A21" s="53" t="s">
-        <v>100</v>
+      <c r="A21" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="5"/>
+        <v>232</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.6720000000000006</v>
+      </c>
       <c r="E21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>9</v>
@@ -17463,23 +17892,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A22" s="53" t="s">
-        <v>101</v>
+      <c r="A22" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="5"/>
+        <v>233</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9.2539999999999996</v>
+      </c>
       <c r="E22" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>9</v>
@@ -17489,23 +17924,29 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="C23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8.7609999999999992</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="21" t="s">
+        <v>254</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>9</v>
@@ -17515,23 +17956,29 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30</v>
+      </c>
       <c r="E24" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>9</v>
@@ -17541,23 +17988,29 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A25" s="53" t="s">
-        <v>271</v>
+      <c r="A25" s="33" t="s">
+        <v>270</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>9</v>
@@ -17568,28 +18021,28 @@
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A27" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A28" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A29" s="11" t="s">
@@ -17601,15 +18054,15 @@
       <c r="C29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A30" s="7" t="s">
@@ -17621,44 +18074,50 @@
       <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="43"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A31" s="51" t="s">
-        <v>102</v>
+      <c r="A31" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10.433999999999999</v>
+      </c>
       <c r="E31" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>9</v>
@@ -17668,23 +18127,29 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A32" s="51" t="s">
-        <v>103</v>
+      <c r="A32" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.1839999999999993</v>
+      </c>
       <c r="E32" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>9</v>
@@ -17694,23 +18159,29 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A33" s="53" t="s">
-        <v>104</v>
+      <c r="A33" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="2">
+        <v>30</v>
+      </c>
       <c r="E33" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>227</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>9</v>
@@ -17721,22 +18192,22 @@
     </row>
     <row r="35" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A35" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="5"/>
       <c r="E35" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>9</v>
@@ -17747,22 +18218,22 @@
     </row>
     <row r="36" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="5"/>
       <c r="E36" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>9</v>
@@ -17773,48 +18244,48 @@
     </row>
     <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A38" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A39" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A40" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="49"/>
+      <c r="D40" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A41" s="7" t="s">
@@ -17826,44 +18297,50 @@
       <c r="C41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="43"/>
+      <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" ht="147.6" x14ac:dyDescent="0.7">
-      <c r="A42" s="51" t="s">
-        <v>109</v>
+      <c r="A42" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10.305</v>
+      </c>
       <c r="E42" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>198</v>
+      </c>
       <c r="G42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>9</v>
@@ -17873,23 +18350,29 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A43" s="51" t="s">
-        <v>110</v>
+      <c r="A43" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8.1579999999999995</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="21" t="s">
+        <v>236</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>9</v>
@@ -17899,23 +18382,29 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A44" s="53" t="s">
-        <v>111</v>
+      <c r="A44" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="B44" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="2">
+        <v>30</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>9</v>
@@ -17926,22 +18415,22 @@
     </row>
     <row r="45" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A45" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="5"/>
       <c r="E45" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>9</v>
@@ -17952,22 +18441,22 @@
     </row>
     <row r="46" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A46" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="5"/>
       <c r="E46" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>9</v>
@@ -17978,6 +18467,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D14:J14"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="D15:J15"/>
@@ -17986,11 +18480,6 @@
     <mergeCell ref="D29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -18940,8 +19429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BC18E1-5B36-411A-BFAB-3771C8B534C4}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -18949,9 +19438,8 @@
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.6640625" style="1" customWidth="1"/>
@@ -18960,42 +19448,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -19007,15 +19495,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="7" t="s">
@@ -19027,44 +19515,50 @@
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A6" s="51" t="s">
-        <v>117</v>
+      <c r="A6" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12.516999999999999</v>
+      </c>
       <c r="E6" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -19074,23 +19568,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A7" s="53" t="s">
-        <v>118</v>
+      <c r="A7" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.56</v>
+      </c>
       <c r="E7" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
@@ -19100,23 +19600,29 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A8" s="53" t="s">
-        <v>119</v>
+      <c r="A8" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.8930000000000007</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>9</v>
@@ -19126,23 +19632,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A9" s="53" t="s">
-        <v>120</v>
+      <c r="A9" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="E9" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
@@ -19152,23 +19664,29 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A10" s="53" t="s">
-        <v>121</v>
+      <c r="A10" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.39</v>
+      </c>
       <c r="E10" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>156</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
@@ -19178,23 +19696,29 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A11" s="53" t="s">
-        <v>152</v>
+      <c r="A11" s="33" t="s">
+        <v>151</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.48</v>
+      </c>
       <c r="E11" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>9</v>
@@ -19204,23 +19728,29 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A12" s="53" t="s">
-        <v>153</v>
+      <c r="A12" s="33" t="s">
+        <v>152</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9.5299999999999994</v>
+      </c>
       <c r="E12" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>9</v>
@@ -19230,23 +19760,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A13" s="53" t="s">
-        <v>154</v>
+      <c r="A13" s="33" t="s">
+        <v>153</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.3620000000000001</v>
+      </c>
       <c r="E13" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>9</v>
@@ -19256,23 +19792,29 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A14" s="53" t="s">
-        <v>155</v>
+      <c r="A14" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9.8960000000000008</v>
+      </c>
       <c r="E14" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>9</v>
@@ -19282,23 +19824,29 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A15" s="53" t="s">
-        <v>156</v>
+      <c r="A15" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9.5730000000000004</v>
+      </c>
       <c r="E15" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>9</v>
@@ -19308,23 +19856,29 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A16" s="53" t="s">
-        <v>274</v>
+      <c r="A16" s="33" t="s">
+        <v>273</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30</v>
+      </c>
       <c r="E16" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>272</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>9</v>
@@ -19347,28 +19901,28 @@
     </row>
     <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A18" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A20" s="11" t="s">
@@ -19380,15 +19934,15 @@
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A21" s="7" t="s">
@@ -19400,44 +19954,50 @@
       <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="43"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="123" x14ac:dyDescent="0.7">
-      <c r="A22" s="51" t="s">
-        <v>122</v>
+      <c r="A22" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11.726000000000001</v>
+      </c>
       <c r="E22" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>9</v>
@@ -19447,23 +20007,29 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A23" s="53" t="s">
-        <v>123</v>
+      <c r="A23" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9.7929999999999993</v>
+      </c>
       <c r="E23" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>9</v>
@@ -19473,23 +20039,29 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A24" s="53" t="s">
-        <v>124</v>
+      <c r="A24" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10.946</v>
+      </c>
       <c r="E24" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>9</v>
@@ -19499,23 +20071,29 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A25" s="53" t="s">
-        <v>125</v>
+      <c r="A25" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.968</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>9</v>
@@ -19525,23 +20103,29 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A26" s="53" t="s">
-        <v>126</v>
+      <c r="A26" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9.9079999999999995</v>
+      </c>
       <c r="E26" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>9</v>
@@ -19551,23 +20135,29 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A27" s="53" t="s">
-        <v>127</v>
+      <c r="A27" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9.6660000000000004</v>
+      </c>
       <c r="E27" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>9</v>
@@ -19577,23 +20167,29 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A28" s="53" t="s">
-        <v>159</v>
+      <c r="A28" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9.407</v>
+      </c>
       <c r="E28" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>9</v>
@@ -19603,23 +20199,29 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
-      <c r="A29" s="53" t="s">
-        <v>160</v>
+      <c r="A29" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9.8230000000000004</v>
+      </c>
       <c r="E29" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>9</v>
@@ -19629,23 +20231,29 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A30" s="53" t="s">
-        <v>161</v>
+      <c r="A30" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="5"/>
+        <v>249</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9.5180000000000007</v>
+      </c>
       <c r="E30" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>156</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>9</v>
@@ -19655,23 +20263,29 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A31" s="53" t="s">
-        <v>162</v>
+      <c r="A31" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="5"/>
+        <v>250</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10.196999999999999</v>
+      </c>
       <c r="E31" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>9</v>
@@ -19681,23 +20295,29 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A32" s="53" t="s">
-        <v>163</v>
+      <c r="A32" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="5"/>
+        <v>251</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9.36</v>
+      </c>
       <c r="E32" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>9</v>
@@ -19707,23 +20327,29 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8.24</v>
+      </c>
       <c r="E33" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>254</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>254</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>9</v>
@@ -19733,23 +20359,29 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="C34" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="2">
+        <v>30</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="G34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>9</v>
@@ -19759,23 +20391,29 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>30</v>
+      </c>
       <c r="E35" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>9</v>
@@ -19786,28 +20424,28 @@
     </row>
     <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A37" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A38" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A39" s="11" t="s">
@@ -19819,15 +20457,15 @@
       <c r="C39" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A40" s="7" t="s">
@@ -19839,44 +20477,50 @@
       <c r="C40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="43"/>
+      <c r="J40" s="36"/>
     </row>
     <row r="41" spans="1:10" ht="123" x14ac:dyDescent="0.7">
-      <c r="A41" s="51" t="s">
-        <v>128</v>
+      <c r="A41" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10.446</v>
+      </c>
       <c r="E41" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="G41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>9</v>
@@ -19886,23 +20530,29 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A42" s="51" t="s">
-        <v>129</v>
+      <c r="A42" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="2">
+        <v>8.2539999999999996</v>
+      </c>
       <c r="E42" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="G42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>9</v>
@@ -19912,23 +20562,29 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A43" s="53" t="s">
-        <v>130</v>
+      <c r="A43" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="2">
+        <v>30</v>
+      </c>
       <c r="E43" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F43" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>227</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>9</v>
@@ -19939,22 +20595,22 @@
     </row>
     <row r="44" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="5"/>
       <c r="E44" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>9</v>
@@ -19965,22 +20621,22 @@
     </row>
     <row r="45" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="5"/>
       <c r="E45" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>9</v>
@@ -19991,48 +20647,48 @@
     </row>
     <row r="47" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A47" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A48" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
+        <v>210</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="49"/>
+      <c r="D49" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A50" s="7" t="s">
@@ -20044,44 +20700,50 @@
       <c r="C50" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="43"/>
+      <c r="J50" s="36"/>
     </row>
     <row r="51" spans="1:10" ht="147.6" x14ac:dyDescent="0.7">
-      <c r="A51" s="51" t="s">
-        <v>131</v>
+      <c r="A51" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10.343999999999999</v>
+      </c>
       <c r="E51" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>203</v>
+      </c>
       <c r="G51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>9</v>
@@ -20091,23 +20753,29 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A52" s="51" t="s">
-        <v>110</v>
+      <c r="A52" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8.2219999999999995</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="21" t="s">
+        <v>236</v>
+      </c>
       <c r="G52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>9</v>
@@ -20117,23 +20785,29 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A53" s="53" t="s">
-        <v>111</v>
+      <c r="A53" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="2">
+        <v>30</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="G53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>9</v>
@@ -20144,22 +20818,22 @@
     </row>
     <row r="54" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="5"/>
       <c r="E54" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>9</v>
@@ -20170,22 +20844,22 @@
     </row>
     <row r="55" spans="1:10" ht="49.2" hidden="1" x14ac:dyDescent="0.7">
       <c r="A55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="5"/>
       <c r="E55" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>9</v>
@@ -20196,6 +20870,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D19:J19"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D38:J38"/>
@@ -20203,12 +20883,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="D48:J48"/>
     <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D19:J19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -21599,7 +22273,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -21607,9 +22281,8 @@
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.6640625" style="1" customWidth="1"/>
@@ -21618,42 +22291,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+        <v>210</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -21665,15 +22338,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="7" t="s">
@@ -21686,43 +22359,49 @@
         <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A6" s="51" t="s">
-        <v>165</v>
+      <c r="A6" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="56">
+        <v>9.452</v>
+      </c>
       <c r="E6" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -21732,23 +22411,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
-        <v>166</v>
+      <c r="A7" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
+        <v>167</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.1549999999999994</v>
+      </c>
       <c r="E7" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>169</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
@@ -21771,28 +22456,28 @@
     </row>
     <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.7">
       <c r="A10" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A11" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
+        <v>210</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A12" s="11" t="s">
@@ -21804,15 +22489,15 @@
       <c r="C12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A13" s="7" t="s">
@@ -21824,44 +22509,50 @@
       <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A14" s="51" t="s">
-        <v>171</v>
+      <c r="A14" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.3719999999999999</v>
+      </c>
       <c r="E14" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>176</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>9</v>
@@ -21871,23 +22562,29 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A15" s="51" t="s">
-        <v>172</v>
+      <c r="A15" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.3249999999999993</v>
+      </c>
       <c r="E15" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>177</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>177</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>9</v>
@@ -21897,23 +22594,29 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A16" s="51" t="s">
-        <v>173</v>
+      <c r="A16" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.2949999999999999</v>
+      </c>
       <c r="E16" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>178</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>9</v>

--- a/เอกสารการทดสอบระบบ/System_test_DPML.xlsx
+++ b/เอกสารการทดสอบระบบ/System_test_DPML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\First-AP\Desktop\Homework\4th Year\CSI_project\เอกสารการทดสอบระบบ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F54CC-C5C2-4789-8C0C-FED79C1B3E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93970A7B-772A-4AEB-AB82-1BDD282824C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C84F4602-E6E0-45CB-89B2-39096823FACA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="282">
   <si>
     <t>การทดสอบการทำงานของระบบ DPML</t>
   </si>
@@ -928,13 +928,19 @@
   </si>
   <si>
     <t>Test time (Second)</t>
+  </si>
+  <si>
+    <t>Positive case</t>
+  </si>
+  <si>
+    <t>Negative case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,6 +1016,20 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
@@ -1166,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1260,38 +1280,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1311,6 +1301,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1323,8 +1346,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14477,29 +14503,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.4" x14ac:dyDescent="1.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="6" t="s">
@@ -14517,10 +14543,10 @@
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="2">
@@ -14546,13 +14572,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -14569,9 +14595,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="20" t="s">
         <v>16</v>
       </c>
@@ -14586,9 +14612,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="20" t="s">
         <v>17</v>
       </c>
@@ -14603,13 +14629,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A8" s="46">
+      <c r="A8" s="36">
         <v>3</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="39" t="s">
         <v>206</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -14626,9 +14652,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
@@ -14643,9 +14669,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="50"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
@@ -14660,9 +14686,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="19" t="s">
         <v>93</v>
       </c>
@@ -14677,13 +14703,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>4</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="45" t="s">
         <v>207</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -14700,9 +14726,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="41"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
@@ -14717,9 +14743,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="41"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="20" t="s">
         <v>30</v>
       </c>
@@ -14734,9 +14760,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="20" t="s">
         <v>94</v>
       </c>
@@ -14751,13 +14777,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A16" s="46">
+      <c r="A16" s="36">
         <v>5</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="39" t="s">
         <v>208</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -14774,9 +14800,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="19" t="s">
         <v>36</v>
       </c>
@@ -14792,6 +14818,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C8:C11"/>
@@ -14801,12 +14833,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -15461,7 +15487,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -15481,20 +15507,26 @@
       <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B1" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
@@ -15506,15 +15538,15 @@
       <c r="C3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -15526,15 +15558,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="6" t="s">
@@ -15561,12 +15593,12 @@
       <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="49"/>
     </row>
-    <row r="6" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A6" s="31" t="s">
         <v>64</v>
       </c>
@@ -15974,8 +16006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E9E5E0-1A19-4413-9271-D7F62269F354}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -15996,20 +16028,26 @@
       <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B1" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
@@ -16021,15 +16059,15 @@
       <c r="C3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -16041,15 +16079,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="7" t="s">
@@ -16076,10 +16114,10 @@
       <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
       <c r="A6" s="31" t="s">
@@ -16287,6 +16325,12 @@
       <c r="A16" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B16" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A17" s="11" t="s">
@@ -16298,15 +16342,15 @@
       <c r="C17" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A18" s="11" t="s">
@@ -16318,15 +16362,15 @@
       <c r="C18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="7" t="s">
@@ -16426,6 +16470,12 @@
       <c r="A23" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B23" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A24" s="11" t="s">
@@ -16437,15 +16487,15 @@
       <c r="C24" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A25" s="11" t="s">
@@ -16457,15 +16507,15 @@
       <c r="C25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A26" s="7" t="s">
@@ -17346,8 +17396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582083BC-7587-4DA7-9659-6E9AFDB0EA56}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -17367,20 +17417,26 @@
       <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B1" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
@@ -17392,15 +17448,15 @@
       <c r="C3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -17412,15 +17468,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="7" t="s">
@@ -17447,10 +17503,10 @@
       <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="123" x14ac:dyDescent="0.7">
       <c r="A6" s="31" t="s">
@@ -17660,6 +17716,12 @@
       <c r="A13" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B13" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A14" s="11" t="s">
@@ -17671,15 +17733,15 @@
       <c r="C14" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A15" s="11" t="s">
@@ -17691,15 +17753,15 @@
       <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A16" s="7" t="s">
@@ -17726,10 +17788,10 @@
       <c r="H16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A17" s="31" t="s">
@@ -18034,15 +18096,15 @@
       <c r="C28" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A29" s="11" t="s">
@@ -18054,15 +18116,15 @@
       <c r="C29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A30" s="7" t="s">
@@ -18089,10 +18151,10 @@
       <c r="H30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="36"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A31" s="31" t="s">
@@ -18246,6 +18308,12 @@
       <c r="A38" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B38" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A39" s="11" t="s">
@@ -18257,15 +18325,15 @@
       <c r="C39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A40" s="11" t="s">
@@ -18277,15 +18345,15 @@
       <c r="C40" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="55"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A41" s="7" t="s">
@@ -18312,10 +18380,10 @@
       <c r="H41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="36"/>
+      <c r="J41" s="49"/>
     </row>
     <row r="42" spans="1:10" ht="147.6" x14ac:dyDescent="0.7">
       <c r="A42" s="31" t="s">
@@ -18467,11 +18535,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D14:J14"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="D15:J15"/>
@@ -18480,6 +18543,11 @@
     <mergeCell ref="D29:J29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -19430,7 +19498,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B47" sqref="B47:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -19450,20 +19518,26 @@
       <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B1" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
@@ -19475,15 +19549,15 @@
       <c r="C3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -19495,15 +19569,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="7" t="s">
@@ -19530,10 +19604,10 @@
       <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="98.4" x14ac:dyDescent="0.7">
       <c r="A6" s="31" t="s">
@@ -19903,6 +19977,12 @@
       <c r="A18" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B18" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="11" t="s">
@@ -19914,15 +19994,15 @@
       <c r="C19" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A20" s="11" t="s">
@@ -19934,15 +20014,15 @@
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A21" s="7" t="s">
@@ -19969,10 +20049,10 @@
       <c r="H21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="36"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="123" x14ac:dyDescent="0.7">
       <c r="A22" s="31" t="s">
@@ -20426,6 +20506,12 @@
       <c r="A37" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B37" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A38" s="11" t="s">
@@ -20437,15 +20523,15 @@
       <c r="C38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A39" s="11" t="s">
@@ -20457,15 +20543,15 @@
       <c r="C39" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="55"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A40" s="7" t="s">
@@ -20492,10 +20578,10 @@
       <c r="H40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="36"/>
+      <c r="J40" s="49"/>
     </row>
     <row r="41" spans="1:10" ht="123" x14ac:dyDescent="0.7">
       <c r="A41" s="31" t="s">
@@ -20649,6 +20735,12 @@
       <c r="A47" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B47" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A48" s="11" t="s">
@@ -20660,15 +20752,15 @@
       <c r="C48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A49" s="11" t="s">
@@ -20680,15 +20772,15 @@
       <c r="C49" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A50" s="7" t="s">
@@ -20715,10 +20807,10 @@
       <c r="H50" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I50" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="36"/>
+      <c r="J50" s="49"/>
     </row>
     <row r="51" spans="1:10" ht="147.6" x14ac:dyDescent="0.7">
       <c r="A51" s="31" t="s">
@@ -20870,12 +20962,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D19:J19"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D38:J38"/>
@@ -20883,6 +20969,12 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="D48:J48"/>
     <mergeCell ref="D49:J49"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D19:J19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -22272,8 +22364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF94E3-D30D-4096-A43A-CB0DA146CBD5}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -22293,20 +22385,26 @@
       <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B1" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
@@ -22318,15 +22416,15 @@
       <c r="C3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
@@ -22338,15 +22436,15 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="7" t="s">
@@ -22373,10 +22471,10 @@
       <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A6" s="31" t="s">
@@ -22388,7 +22486,7 @@
       <c r="C6" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="35">
         <v>9.452</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -22458,6 +22556,12 @@
       <c r="A10" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B10" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A11" s="11" t="s">
@@ -22469,15 +22573,15 @@
       <c r="C11" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A12" s="11" t="s">
@@ -22489,15 +22593,15 @@
       <c r="C12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A13" s="7" t="s">
@@ -22524,10 +22628,10 @@
       <c r="H13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="36"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
       <c r="A14" s="31" t="s">
